--- a/GPS_APPChecklistForAutoTest.xlsx
+++ b/GPS_APPChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="890">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -1402,7 +1402,7 @@
     <t>Hiển thị theo biển số phương tiện</t>
   </si>
   <si>
-    <t>43C11608_C</t>
+    <t>43C11214_C</t>
   </si>
   <si>
     <t>Vehicle02</t>
@@ -1441,6 +1441,9 @@
     <t>Tăng dần theo biển kiểm soát</t>
   </si>
   <si>
+    <t>Sắp xếp giảm dần</t>
+  </si>
+  <si>
     <t>Vehicle05</t>
   </si>
   <si>
@@ -1448,6 +1451,9 @@
   </si>
   <si>
     <t>Thời gian cập nhật</t>
+  </si>
+  <si>
+    <t>Sắp xếp tăng dần</t>
   </si>
   <si>
     <t>Vehicle06</t>
@@ -3308,17 +3314,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3327,8 +3333,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3762,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="N231" sqref="N231"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="J247" sqref="J247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3778,8 +3784,8 @@
     <col min="11" max="11" width="17" style="100" customWidth="1"/>
     <col min="12" max="12" width="31.28515625" style="100" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="100" customWidth="1"/>
-    <col min="14" max="241" width="9.140625" style="100" customWidth="1"/>
-    <col min="242" max="16384" width="9.140625" style="100"/>
+    <col min="14" max="253" width="9.140625" style="100" customWidth="1"/>
+    <col min="254" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3797,15 +3803,15 @@
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
@@ -3822,16 +3828,16 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -3854,16 +3860,16 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -3889,16 +3895,16 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
       <c r="L4" s="45"/>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -3911,7 +3917,7 @@
       </c>
       <c r="D5" s="44">
         <f>COUNTIFS(H:H,"Pass",E:E,"x")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="44">
         <f>COUNTIFS(H:H,"Fail",E:E,"x")</f>
@@ -3924,16 +3930,16 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="45"/>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -4109,7 +4115,9 @@
       <c r="J12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5096,7 +5104,7 @@
       <c r="K59" s="26"/>
       <c r="L59" s="26"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>157</v>
       </c>
@@ -8732,9 +8740,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
-      <c r="H231" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H231" s="11"/>
       <c r="I231" s="11"/>
       <c r="J231" s="11" t="s">
         <v>42</v>
@@ -8759,9 +8765,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H232" s="11"/>
       <c r="I232" s="11"/>
       <c r="J232" s="11" t="s">
         <v>42</v>
@@ -8786,9 +8790,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H233" s="11"/>
       <c r="I233" s="11"/>
       <c r="J233" s="11" t="s">
         <v>42</v>
@@ -8824,7 +8826,7 @@
       <c r="L235" s="67"/>
       <c r="M235" s="36"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>470</v>
       </c>
@@ -8841,19 +8843,21 @@
       <c r="H236" s="11"/>
       <c r="I236" s="11"/>
       <c r="J236" s="11"/>
-      <c r="K236" s="11"/>
+      <c r="K236" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="L236" s="11"/>
       <c r="M236" s="36"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -8862,19 +8866,21 @@
       <c r="H237" s="11"/>
       <c r="I237" s="11"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="11"/>
+      <c r="K237" s="11" t="s">
+        <v>477</v>
+      </c>
       <c r="L237" s="11"/>
       <c r="M237" s="36"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -8904,7 +8910,7 @@
     </row>
     <row r="240" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="65" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B240" s="66"/>
       <c r="C240" s="66"/>
@@ -8923,7 +8929,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>123</v>
@@ -8937,7 +8943,9 @@
       </c>
       <c r="F241" s="26"/>
       <c r="G241" s="26"/>
-      <c r="H241" s="11"/>
+      <c r="H241" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I241" s="26"/>
       <c r="J241" s="26"/>
       <c r="K241" s="26"/>
@@ -8945,7 +8953,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>126</v>
@@ -8959,7 +8967,9 @@
       </c>
       <c r="F242" s="26"/>
       <c r="G242" s="26"/>
-      <c r="H242" s="11"/>
+      <c r="H242" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I242" s="26"/>
       <c r="J242" s="26"/>
       <c r="K242" s="26"/>
@@ -8967,7 +8977,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>129</v>
@@ -8981,7 +8991,9 @@
       </c>
       <c r="F243" s="26"/>
       <c r="G243" s="26"/>
-      <c r="H243" s="11"/>
+      <c r="H243" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I243" s="26"/>
       <c r="J243" s="26"/>
       <c r="K243" s="26"/>
@@ -8989,7 +9001,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B244" s="23" t="s">
         <v>132</v>
@@ -9003,7 +9015,9 @@
       </c>
       <c r="F244" s="26"/>
       <c r="G244" s="26"/>
-      <c r="H244" s="11"/>
+      <c r="H244" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I244" s="26"/>
       <c r="J244" s="26"/>
       <c r="K244" s="26"/>
@@ -9011,7 +9025,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
@@ -9033,7 +9047,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>138</v>
@@ -9055,7 +9069,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>141</v>
@@ -9077,7 +9091,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>144</v>
@@ -9099,7 +9113,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>147</v>
@@ -9121,10 +9135,10 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>151</v>
@@ -9156,7 +9170,7 @@
     </row>
     <row r="252" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="65" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B252" s="66"/>
       <c r="C252" s="66"/>
@@ -9175,10 +9189,10 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="11"/>
@@ -9194,10 +9208,10 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="11"/>
@@ -9213,7 +9227,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>259</v>
@@ -9232,7 +9246,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>271</v>
@@ -9251,10 +9265,10 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="11"/>
@@ -9270,10 +9284,10 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="11"/>
@@ -9289,7 +9303,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>280</v>
@@ -9308,7 +9322,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>255</v>
@@ -9341,7 +9355,7 @@
     </row>
     <row r="262" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="65" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B262" s="66"/>
       <c r="C262" s="66"/>
@@ -9360,7 +9374,7 @@
     </row>
     <row r="263" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="62"/>
@@ -9376,10 +9390,10 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C264" s="7"/>
       <c r="D264" s="11"/>
@@ -9395,10 +9409,10 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="11"/>
@@ -9414,13 +9428,13 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -9435,13 +9449,13 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -9456,13 +9470,13 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -9492,7 +9506,7 @@
     </row>
     <row r="270" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -9509,7 +9523,7 @@
     </row>
     <row r="271" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="108" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B271" s="109"/>
       <c r="C271" s="20"/>
@@ -9526,7 +9540,7 @@
     </row>
     <row r="272" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B272" s="60"/>
       <c r="C272" s="60"/>
@@ -9543,13 +9557,13 @@
     </row>
     <row r="273" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>33</v>
@@ -9568,10 +9582,10 @@
     </row>
     <row r="274" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="21" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C274" s="22"/>
       <c r="D274" s="15" t="s">
@@ -9589,10 +9603,10 @@
     </row>
     <row r="275" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="21" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C275" s="22"/>
       <c r="D275" s="15"/>
@@ -9610,10 +9624,10 @@
     </row>
     <row r="276" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15" t="s">
@@ -9630,10 +9644,10 @@
     </row>
     <row r="277" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C277" s="22"/>
       <c r="D277" s="15"/>
@@ -9651,10 +9665,10 @@
     </row>
     <row r="278" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15" t="s">
@@ -9670,10 +9684,10 @@
     </row>
     <row r="279" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C279" s="22"/>
       <c r="D279" s="15"/>
@@ -9690,10 +9704,10 @@
     </row>
     <row r="280" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C280" s="22"/>
       <c r="D280" s="15"/>
@@ -9725,7 +9739,7 @@
     </row>
     <row r="282" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B282" s="60"/>
       <c r="C282" s="60"/>
@@ -9742,13 +9756,13 @@
     </row>
     <row r="283" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="17" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D283" s="11" t="s">
         <v>33</v>
@@ -9767,13 +9781,13 @@
     </row>
     <row r="284" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C284" s="69" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>33</v>
@@ -9790,13 +9804,13 @@
     </row>
     <row r="285" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>33</v>
@@ -9813,13 +9827,13 @@
     </row>
     <row r="286" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C286" s="69" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D286" s="11" t="s">
         <v>33</v>
@@ -9836,13 +9850,13 @@
     </row>
     <row r="287" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C287" s="69" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D287" s="11" t="s">
         <v>33</v>
@@ -9859,13 +9873,13 @@
     </row>
     <row r="288" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D288" s="11" t="s">
         <v>33</v>
@@ -9882,13 +9896,13 @@
     </row>
     <row r="289" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="11"/>
@@ -9905,13 +9919,13 @@
     </row>
     <row r="290" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="11"/>
@@ -9928,13 +9942,13 @@
     </row>
     <row r="291" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -9951,13 +9965,13 @@
     </row>
     <row r="292" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -9974,13 +9988,13 @@
     </row>
     <row r="293" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -9997,10 +10011,10 @@
     </row>
     <row r="294" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C294" s="18"/>
       <c r="D294" s="11"/>
@@ -10018,10 +10032,10 @@
     </row>
     <row r="295" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B295" s="69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C295" s="18"/>
       <c r="D295" s="11"/>
@@ -10054,7 +10068,7 @@
     </row>
     <row r="297" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B297" s="62"/>
       <c r="C297" s="62"/>
@@ -10071,13 +10085,13 @@
     </row>
     <row r="298" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>33</v>
@@ -10096,13 +10110,13 @@
     </row>
     <row r="299" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D299" s="11"/>
       <c r="E299" s="5"/>
@@ -10119,10 +10133,10 @@
     </row>
     <row r="300" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="11" t="s">
@@ -10140,10 +10154,10 @@
     </row>
     <row r="301" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="11" t="s">
@@ -10161,10 +10175,10 @@
     </row>
     <row r="302" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="11" t="s">
@@ -10182,10 +10196,10 @@
     </row>
     <row r="303" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="11" t="s">
@@ -10203,10 +10217,10 @@
     </row>
     <row r="304" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="11"/>
@@ -10224,10 +10238,10 @@
     </row>
     <row r="305" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="5"/>
@@ -10245,10 +10259,10 @@
     </row>
     <row r="306" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="11" t="s">
@@ -10266,10 +10280,10 @@
     </row>
     <row r="307" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="11" t="s">
@@ -10302,7 +10316,7 @@
     </row>
     <row r="309" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B309" s="62"/>
       <c r="C309" s="62"/>
@@ -10319,13 +10333,13 @@
     </row>
     <row r="310" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C310" s="68" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>33</v>
@@ -10344,10 +10358,10 @@
     </row>
     <row r="311" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C311" s="23"/>
       <c r="D311" s="11" t="s">
@@ -10365,10 +10379,10 @@
     </row>
     <row r="312" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C312" s="23"/>
       <c r="E312" s="11"/>
@@ -10381,16 +10395,16 @@
       <c r="J312" s="11"/>
       <c r="K312" s="11"/>
       <c r="L312" s="11" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M312" s="36"/>
     </row>
     <row r="313" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C313" s="23"/>
       <c r="E313" s="11"/>
@@ -10403,7 +10417,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="11"/>
       <c r="L313" s="11" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M313" s="36"/>
     </row>
@@ -10424,7 +10438,7 @@
     </row>
     <row r="315" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="106" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B315" s="107"/>
       <c r="C315" s="20"/>
@@ -10441,7 +10455,7 @@
     </row>
     <row r="316" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="108" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B316" s="109"/>
       <c r="C316" s="20"/>
@@ -10458,7 +10472,7 @@
     </row>
     <row r="317" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B317" s="60"/>
       <c r="C317" s="60"/>
@@ -10475,13 +10489,13 @@
     </row>
     <row r="318" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="21" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>33</v>
@@ -10498,13 +10512,13 @@
     </row>
     <row r="319" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="21" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>33</v>
@@ -10521,13 +10535,13 @@
     </row>
     <row r="320" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="21" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B320" s="22" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>33</v>
@@ -10544,13 +10558,13 @@
     </row>
     <row r="321" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B321" s="22" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="15" t="s">
@@ -10567,13 +10581,13 @@
     </row>
     <row r="322" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="21" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B322" s="22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15" t="s">
@@ -10590,13 +10604,13 @@
     </row>
     <row r="323" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="21" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15" t="s">
@@ -10613,13 +10627,13 @@
     </row>
     <row r="324" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="72" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C324" s="27" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="28" t="s">
@@ -10636,13 +10650,13 @@
     </row>
     <row r="325" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D325" s="11"/>
       <c r="E325" s="11" t="s">
@@ -10659,13 +10673,13 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="17" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D326" s="11"/>
       <c r="E326" s="11" t="s">
@@ -10682,13 +10696,13 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="17" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C327" s="18" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D327" s="11"/>
       <c r="E327" s="11" t="s">
@@ -10705,13 +10719,13 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="73" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D328" s="11"/>
       <c r="E328" s="11" t="s">
@@ -10728,13 +10742,13 @@
     </row>
     <row r="329" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="73" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D329" s="11"/>
       <c r="E329" s="11" t="s">
@@ -10751,13 +10765,13 @@
     </row>
     <row r="330" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="73" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D330" s="11"/>
       <c r="E330" s="11" t="s">
@@ -10774,13 +10788,13 @@
     </row>
     <row r="331" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="73" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C331" s="23" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D331" s="11"/>
       <c r="E331" s="11" t="s">
@@ -10797,13 +10811,13 @@
     </row>
     <row r="332" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="73" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B332" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C332" s="23" t="s">
         <v>648</v>
-      </c>
-      <c r="C332" s="23" t="s">
-        <v>646</v>
       </c>
       <c r="D332" s="11"/>
       <c r="E332" s="11" t="s">
@@ -10820,13 +10834,13 @@
     </row>
     <row r="333" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="73" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D333" s="11"/>
       <c r="E333" s="11" t="s">
@@ -10843,13 +10857,13 @@
     </row>
     <row r="334" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="73" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C334" s="18" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D334" s="11"/>
       <c r="E334" s="11" t="s">
@@ -10881,7 +10895,7 @@
     </row>
     <row r="336" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="98" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B336" s="98"/>
       <c r="C336" s="98"/>
@@ -10897,10 +10911,10 @@
       <c r="M336" s="36"/>
     </row>
     <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="110" t="s">
-        <v>656</v>
-      </c>
-      <c r="B337" s="104"/>
+      <c r="A337" s="101" t="s">
+        <v>658</v>
+      </c>
+      <c r="B337" s="102"/>
       <c r="C337" s="98"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
@@ -10915,7 +10929,7 @@
     </row>
     <row r="338" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="29" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -10931,9 +10945,9 @@
     </row>
     <row r="339" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="103" t="s">
-        <v>658</v>
-      </c>
-      <c r="B339" s="104"/>
+        <v>660</v>
+      </c>
+      <c r="B339" s="102"/>
       <c r="C339" s="99"/>
       <c r="D339" s="31"/>
       <c r="E339" s="31"/>
@@ -10947,13 +10961,13 @@
     </row>
     <row r="340" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="25" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B340" s="25" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C340" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D340" s="26" t="s">
         <v>33</v>
@@ -10969,13 +10983,13 @@
     </row>
     <row r="341" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="25" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B341" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C341" s="25" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D341" s="26" t="s">
         <v>33</v>
@@ -10991,13 +11005,13 @@
     </row>
     <row r="342" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="25" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B342" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C342" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D342" s="26" t="s">
         <v>33</v>
@@ -11015,9 +11029,9 @@
     </row>
     <row r="343" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="103" t="s">
-        <v>668</v>
-      </c>
-      <c r="B343" s="104"/>
+        <v>670</v>
+      </c>
+      <c r="B343" s="102"/>
       <c r="C343" s="99"/>
       <c r="D343" s="31"/>
       <c r="E343" s="31"/>
@@ -11031,13 +11045,13 @@
     </row>
     <row r="344" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="25" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B344" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C344" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D344" s="26" t="s">
         <v>33</v>
@@ -11053,13 +11067,13 @@
     </row>
     <row r="345" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B345" s="25" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C345" s="25" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D345" s="26" t="s">
         <v>33</v>
@@ -11075,13 +11089,13 @@
     </row>
     <row r="346" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="25" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B346" s="25" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C346" s="25" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D346" s="26" t="s">
         <v>33</v>
@@ -11097,13 +11111,13 @@
     </row>
     <row r="347" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B347" s="25" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C347" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D347" s="26" t="s">
         <v>33</v>
@@ -11119,13 +11133,13 @@
     </row>
     <row r="348" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="25" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B348" s="25" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C348" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D348" s="26" t="s">
         <v>33</v>
@@ -11157,9 +11171,9 @@
     </row>
     <row r="350" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="103" t="s">
-        <v>681</v>
-      </c>
-      <c r="B350" s="104"/>
+        <v>683</v>
+      </c>
+      <c r="B350" s="102"/>
       <c r="C350" s="99"/>
       <c r="D350" s="31"/>
       <c r="E350" s="31"/>
@@ -11173,13 +11187,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B351" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C351" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D351" s="26" t="s">
         <v>33</v>
@@ -11195,13 +11209,13 @@
     </row>
     <row r="352" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="25" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B352" s="25" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C352" s="25" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D352" s="26" t="s">
         <v>33</v>
@@ -11217,13 +11231,13 @@
     </row>
     <row r="353" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="25" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B353" s="25" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C353" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D353" s="26" t="s">
         <v>33</v>
@@ -11241,13 +11255,13 @@
     </row>
     <row r="354" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="25" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B354" s="25" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C354" s="25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D354" s="26" t="s">
         <v>33</v>
@@ -11263,13 +11277,13 @@
     </row>
     <row r="355" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="25" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C355" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D355" s="26" t="s">
         <v>33</v>
@@ -11301,9 +11315,9 @@
     </row>
     <row r="357" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="103" t="s">
-        <v>693</v>
-      </c>
-      <c r="B357" s="104"/>
+        <v>695</v>
+      </c>
+      <c r="B357" s="102"/>
       <c r="C357" s="99"/>
       <c r="D357" s="31"/>
       <c r="E357" s="31"/>
@@ -11317,13 +11331,13 @@
     </row>
     <row r="358" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="25" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B358" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C358" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D358" s="26" t="s">
         <v>33</v>
@@ -11339,13 +11353,13 @@
     </row>
     <row r="359" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="25" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B359" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C359" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D359" s="26" t="s">
         <v>33</v>
@@ -11361,13 +11375,13 @@
     </row>
     <row r="360" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="25" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B360" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C360" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D360" s="26" t="s">
         <v>33</v>
@@ -11399,9 +11413,9 @@
     </row>
     <row r="362" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="103" t="s">
-        <v>697</v>
-      </c>
-      <c r="B362" s="104"/>
+        <v>699</v>
+      </c>
+      <c r="B362" s="102"/>
       <c r="C362" s="99"/>
       <c r="D362" s="31"/>
       <c r="E362" s="31"/>
@@ -11415,13 +11429,13 @@
     </row>
     <row r="363" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="25" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B363" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C363" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D363" s="26" t="s">
         <v>33</v>
@@ -11437,13 +11451,13 @@
     </row>
     <row r="364" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="25" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B364" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C364" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D364" s="26" t="s">
         <v>33</v>
@@ -11459,13 +11473,13 @@
     </row>
     <row r="365" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="25" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B365" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C365" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D365" s="26" t="s">
         <v>33</v>
@@ -11497,9 +11511,9 @@
     </row>
     <row r="367" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="103" t="s">
-        <v>701</v>
-      </c>
-      <c r="B367" s="104"/>
+        <v>703</v>
+      </c>
+      <c r="B367" s="102"/>
       <c r="C367" s="99"/>
       <c r="D367" s="31"/>
       <c r="E367" s="31"/>
@@ -11513,13 +11527,13 @@
     </row>
     <row r="368" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="25" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B368" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C368" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D368" s="26" t="s">
         <v>33</v>
@@ -11535,13 +11549,13 @@
     </row>
     <row r="369" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B369" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C369" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D369" s="26" t="s">
         <v>33</v>
@@ -11557,13 +11571,13 @@
     </row>
     <row r="370" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="25" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B370" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C370" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D370" s="26" t="s">
         <v>33</v>
@@ -11595,9 +11609,9 @@
     </row>
     <row r="372" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="103" t="s">
-        <v>705</v>
-      </c>
-      <c r="B372" s="104"/>
+        <v>707</v>
+      </c>
+      <c r="B372" s="102"/>
       <c r="C372" s="99"/>
       <c r="D372" s="31"/>
       <c r="E372" s="31"/>
@@ -11611,13 +11625,13 @@
     </row>
     <row r="373" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="25" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B373" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C373" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D373" s="26" t="s">
         <v>33</v>
@@ -11633,13 +11647,13 @@
     </row>
     <row r="374" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B374" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C374" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D374" s="26" t="s">
         <v>33</v>
@@ -11655,13 +11669,13 @@
     </row>
     <row r="375" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="25" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B375" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C375" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D375" s="26" t="s">
         <v>33</v>
@@ -11693,9 +11707,9 @@
     </row>
     <row r="377" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="103" t="s">
-        <v>709</v>
-      </c>
-      <c r="B377" s="104"/>
+        <v>711</v>
+      </c>
+      <c r="B377" s="102"/>
       <c r="C377" s="99"/>
       <c r="D377" s="31"/>
       <c r="E377" s="31"/>
@@ -11709,13 +11723,13 @@
     </row>
     <row r="378" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="25" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B378" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C378" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D378" s="26" t="s">
         <v>33</v>
@@ -11731,13 +11745,13 @@
     </row>
     <row r="379" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="25" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C379" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D379" s="26" t="s">
         <v>33</v>
@@ -11753,13 +11767,13 @@
     </row>
     <row r="380" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="25" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B380" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C380" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D380" s="26" t="s">
         <v>33</v>
@@ -11791,9 +11805,9 @@
     </row>
     <row r="382" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="103" t="s">
-        <v>713</v>
-      </c>
-      <c r="B382" s="104"/>
+        <v>715</v>
+      </c>
+      <c r="B382" s="102"/>
       <c r="C382" s="99"/>
       <c r="D382" s="31"/>
       <c r="E382" s="31"/>
@@ -11807,13 +11821,13 @@
     </row>
     <row r="383" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B383" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C383" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D383" s="26" t="s">
         <v>33</v>
@@ -11829,13 +11843,13 @@
     </row>
     <row r="384" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="25" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B384" s="25" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C384" s="25" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D384" s="26" t="s">
         <v>33</v>
@@ -11851,13 +11865,13 @@
     </row>
     <row r="385" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="25" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B385" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C385" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D385" s="26" t="s">
         <v>33</v>
@@ -11873,13 +11887,13 @@
     </row>
     <row r="386" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="25" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B386" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C386" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D386" s="26" t="s">
         <v>33</v>
@@ -11911,9 +11925,9 @@
     </row>
     <row r="388" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="103" t="s">
-        <v>719</v>
-      </c>
-      <c r="B388" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="B388" s="102"/>
       <c r="C388" s="99"/>
       <c r="D388" s="31"/>
       <c r="E388" s="31"/>
@@ -11927,13 +11941,13 @@
     </row>
     <row r="389" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="25" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B389" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C389" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D389" s="26" t="s">
         <v>33</v>
@@ -11949,13 +11963,13 @@
     </row>
     <row r="390" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="25" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B390" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C390" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D390" s="26" t="s">
         <v>33</v>
@@ -11971,13 +11985,13 @@
     </row>
     <row r="391" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="25" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C391" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D391" s="26" t="s">
         <v>33</v>
@@ -12009,9 +12023,9 @@
     </row>
     <row r="393" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="103" t="s">
-        <v>723</v>
-      </c>
-      <c r="B393" s="104"/>
+        <v>725</v>
+      </c>
+      <c r="B393" s="102"/>
       <c r="C393" s="99"/>
       <c r="D393" s="31"/>
       <c r="E393" s="31"/>
@@ -12025,13 +12039,13 @@
     </row>
     <row r="394" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B394" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C394" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D394" s="26" t="s">
         <v>33</v>
@@ -12047,13 +12061,13 @@
     </row>
     <row r="395" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="25" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B395" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C395" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D395" s="26" t="s">
         <v>33</v>
@@ -12069,13 +12083,13 @@
     </row>
     <row r="396" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="25" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B396" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C396" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D396" s="26" t="s">
         <v>33</v>
@@ -12107,9 +12121,9 @@
     </row>
     <row r="398" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="103" t="s">
-        <v>727</v>
-      </c>
-      <c r="B398" s="104"/>
+        <v>729</v>
+      </c>
+      <c r="B398" s="102"/>
       <c r="C398" s="99"/>
       <c r="D398" s="31"/>
       <c r="E398" s="31"/>
@@ -12123,13 +12137,13 @@
     </row>
     <row r="399" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C399" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D399" s="26" t="s">
         <v>33</v>
@@ -12145,13 +12159,13 @@
     </row>
     <row r="400" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="25" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C400" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D400" s="26" t="s">
         <v>33</v>
@@ -12167,13 +12181,13 @@
     </row>
     <row r="401" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C401" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D401" s="26" t="s">
         <v>33</v>
@@ -12205,9 +12219,9 @@
     </row>
     <row r="403" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="103" t="s">
-        <v>731</v>
-      </c>
-      <c r="B403" s="104"/>
+        <v>733</v>
+      </c>
+      <c r="B403" s="102"/>
       <c r="C403" s="99"/>
       <c r="D403" s="31"/>
       <c r="E403" s="31"/>
@@ -12221,13 +12235,13 @@
     </row>
     <row r="404" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="25" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C404" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D404" s="26" t="s">
         <v>33</v>
@@ -12243,13 +12257,13 @@
     </row>
     <row r="405" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="25" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C405" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D405" s="26" t="s">
         <v>33</v>
@@ -12265,13 +12279,13 @@
     </row>
     <row r="406" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="25" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B406" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C406" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D406" s="26" t="s">
         <v>33</v>
@@ -12303,9 +12317,9 @@
     </row>
     <row r="408" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="103" t="s">
-        <v>735</v>
-      </c>
-      <c r="B408" s="104"/>
+        <v>737</v>
+      </c>
+      <c r="B408" s="102"/>
       <c r="C408" s="99"/>
       <c r="D408" s="31"/>
       <c r="E408" s="31"/>
@@ -12319,13 +12333,13 @@
     </row>
     <row r="409" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="25" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B409" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C409" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D409" s="26" t="s">
         <v>33</v>
@@ -12341,13 +12355,13 @@
     </row>
     <row r="410" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="25" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B410" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C410" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D410" s="26" t="s">
         <v>33</v>
@@ -12363,13 +12377,13 @@
     </row>
     <row r="411" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B411" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C411" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D411" s="26" t="s">
         <v>33</v>
@@ -12401,9 +12415,9 @@
     </row>
     <row r="413" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="103" t="s">
-        <v>739</v>
-      </c>
-      <c r="B413" s="104"/>
+        <v>741</v>
+      </c>
+      <c r="B413" s="102"/>
       <c r="C413" s="99"/>
       <c r="D413" s="31"/>
       <c r="E413" s="31"/>
@@ -12417,13 +12431,13 @@
     </row>
     <row r="414" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="25" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B414" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C414" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D414" s="26" t="s">
         <v>33</v>
@@ -12439,13 +12453,13 @@
     </row>
     <row r="415" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="25" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C415" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D415" s="26" t="s">
         <v>33</v>
@@ -12461,13 +12475,13 @@
     </row>
     <row r="416" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B416" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C416" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D416" s="26" t="s">
         <v>33</v>
@@ -12499,9 +12513,9 @@
     </row>
     <row r="418" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="103" t="s">
-        <v>743</v>
-      </c>
-      <c r="B418" s="104"/>
+        <v>745</v>
+      </c>
+      <c r="B418" s="102"/>
       <c r="C418" s="99"/>
       <c r="D418" s="31"/>
       <c r="E418" s="31"/>
@@ -12515,13 +12529,13 @@
     </row>
     <row r="419" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="25" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B419" s="25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C419" s="25" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D419" s="26" t="s">
         <v>33</v>
@@ -12537,13 +12551,13 @@
     </row>
     <row r="420" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="25" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B420" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C420" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D420" s="26" t="s">
         <v>33</v>
@@ -12559,13 +12573,13 @@
     </row>
     <row r="421" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="25" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B421" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C421" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D421" s="26" t="s">
         <v>33</v>
@@ -12597,7 +12611,7 @@
     </row>
     <row r="423" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="29" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B423" s="29"/>
       <c r="C423" s="29"/>
@@ -12613,9 +12627,9 @@
     </row>
     <row r="424" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="103" t="s">
-        <v>748</v>
-      </c>
-      <c r="B424" s="104"/>
+        <v>750</v>
+      </c>
+      <c r="B424" s="102"/>
       <c r="C424" s="99"/>
       <c r="D424" s="31"/>
       <c r="E424" s="31"/>
@@ -12629,13 +12643,13 @@
     </row>
     <row r="425" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="25" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B425" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C425" s="25" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D425" s="26" t="s">
         <v>33</v>
@@ -12651,13 +12665,13 @@
     </row>
     <row r="426" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B426" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C426" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D426" s="26" t="s">
         <v>33</v>
@@ -12673,13 +12687,13 @@
     </row>
     <row r="427" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="25" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B427" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C427" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D427" s="26" t="s">
         <v>33</v>
@@ -12711,9 +12725,9 @@
     </row>
     <row r="429" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="103" t="s">
-        <v>756</v>
-      </c>
-      <c r="B429" s="104"/>
+        <v>758</v>
+      </c>
+      <c r="B429" s="102"/>
       <c r="C429" s="99"/>
       <c r="D429" s="31"/>
       <c r="E429" s="31"/>
@@ -12727,13 +12741,13 @@
     </row>
     <row r="430" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="25" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B430" s="25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C430" s="25" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D430" s="26" t="s">
         <v>33</v>
@@ -12749,13 +12763,13 @@
     </row>
     <row r="431" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="25" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B431" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C431" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D431" s="26" t="s">
         <v>33</v>
@@ -12771,13 +12785,13 @@
     </row>
     <row r="432" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B432" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C432" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D432" s="26" t="s">
         <v>33</v>
@@ -12793,13 +12807,13 @@
     </row>
     <row r="433" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B433" s="25" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C433" s="25" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D433" s="26" t="s">
         <v>33</v>
@@ -12829,9 +12843,9 @@
     </row>
     <row r="435" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="103" t="s">
-        <v>764</v>
-      </c>
-      <c r="B435" s="104"/>
+        <v>766</v>
+      </c>
+      <c r="B435" s="102"/>
       <c r="C435" s="99"/>
       <c r="D435" s="31"/>
       <c r="E435" s="31"/>
@@ -12845,13 +12859,13 @@
     </row>
     <row r="436" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B436" s="25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C436" s="25" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D436" s="26" t="s">
         <v>33</v>
@@ -12867,13 +12881,13 @@
     </row>
     <row r="437" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="25" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B437" s="25" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C437" s="25" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D437" s="26" t="s">
         <v>33</v>
@@ -12889,13 +12903,13 @@
     </row>
     <row r="438" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="25" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B438" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C438" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D438" s="26" t="s">
         <v>33</v>
@@ -12913,13 +12927,13 @@
     </row>
     <row r="439" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="25" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B439" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C439" s="25" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D439" s="26" t="s">
         <v>33</v>
@@ -12935,13 +12949,13 @@
     </row>
     <row r="440" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="25" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B440" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C440" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D440" s="26" t="s">
         <v>33</v>
@@ -12954,7 +12968,7 @@
       <c r="J440" s="26"/>
       <c r="K440" s="26"/>
       <c r="L440" s="26" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="441" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12973,7 +12987,7 @@
     </row>
     <row r="442" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="29" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
@@ -12989,9 +13003,9 @@
     </row>
     <row r="443" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="103" t="s">
-        <v>776</v>
-      </c>
-      <c r="B443" s="104"/>
+        <v>778</v>
+      </c>
+      <c r="B443" s="102"/>
       <c r="C443" s="99"/>
       <c r="D443" s="31"/>
       <c r="E443" s="31"/>
@@ -13005,13 +13019,13 @@
     </row>
     <row r="444" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="25" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B444" s="25" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C444" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D444" s="26" t="s">
         <v>33</v>
@@ -13027,13 +13041,13 @@
     </row>
     <row r="445" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="25" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B445" s="25" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C445" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D445" s="26" t="s">
         <v>33</v>
@@ -13049,13 +13063,13 @@
     </row>
     <row r="446" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B446" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C446" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D446" s="26" t="s">
         <v>33</v>
@@ -13071,13 +13085,13 @@
     </row>
     <row r="447" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="25" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B447" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C447" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D447" s="26" t="s">
         <v>33</v>
@@ -13107,9 +13121,9 @@
     </row>
     <row r="449" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="103" t="s">
-        <v>786</v>
-      </c>
-      <c r="B449" s="104"/>
+        <v>788</v>
+      </c>
+      <c r="B449" s="102"/>
       <c r="C449" s="99"/>
       <c r="D449" s="31"/>
       <c r="E449" s="31"/>
@@ -13123,13 +13137,13 @@
     </row>
     <row r="450" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="25" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C450" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D450" s="26" t="s">
         <v>33</v>
@@ -13145,13 +13159,13 @@
     </row>
     <row r="451" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B451" s="25" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C451" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D451" s="26" t="s">
         <v>33</v>
@@ -13167,13 +13181,13 @@
     </row>
     <row r="452" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="25" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C452" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D452" s="26" t="s">
         <v>33</v>
@@ -13191,13 +13205,13 @@
     </row>
     <row r="453" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="25" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C453" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D453" s="26" t="s">
         <v>33</v>
@@ -13213,13 +13227,13 @@
     </row>
     <row r="454" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="25" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C454" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D454" s="26" t="s">
         <v>33</v>
@@ -13249,9 +13263,9 @@
     </row>
     <row r="456" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="103" t="s">
-        <v>793</v>
-      </c>
-      <c r="B456" s="104"/>
+        <v>795</v>
+      </c>
+      <c r="B456" s="102"/>
       <c r="C456" s="99"/>
       <c r="D456" s="31"/>
       <c r="E456" s="31"/>
@@ -13265,13 +13279,13 @@
     </row>
     <row r="457" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C457" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D457" s="26" t="s">
         <v>33</v>
@@ -13287,13 +13301,13 @@
     </row>
     <row r="458" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="25" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C458" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D458" s="26" t="s">
         <v>33</v>
@@ -13309,13 +13323,13 @@
     </row>
     <row r="459" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="25" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C459" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D459" s="26" t="s">
         <v>33</v>
@@ -13331,13 +13345,13 @@
     </row>
     <row r="460" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="25" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B460" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C460" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D460" s="26" t="s">
         <v>33</v>
@@ -13367,9 +13381,9 @@
     </row>
     <row r="462" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="103" t="s">
-        <v>799</v>
-      </c>
-      <c r="B462" s="104"/>
+        <v>801</v>
+      </c>
+      <c r="B462" s="102"/>
       <c r="C462" s="99"/>
       <c r="D462" s="31"/>
       <c r="E462" s="31"/>
@@ -13383,13 +13397,13 @@
     </row>
     <row r="463" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="25" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B463" s="25" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C463" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D463" s="26" t="s">
         <v>33</v>
@@ -13405,13 +13419,13 @@
     </row>
     <row r="464" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="25" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B464" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C464" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D464" s="26" t="s">
         <v>33</v>
@@ -13427,13 +13441,13 @@
     </row>
     <row r="465" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="25" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B465" s="25" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C465" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D465" s="26" t="s">
         <v>33</v>
@@ -13449,13 +13463,13 @@
     </row>
     <row r="466" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="25" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B466" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C466" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D466" s="26" t="s">
         <v>33</v>
@@ -13485,9 +13499,9 @@
     </row>
     <row r="468" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="103" t="s">
-        <v>805</v>
-      </c>
-      <c r="B468" s="104"/>
+        <v>807</v>
+      </c>
+      <c r="B468" s="102"/>
       <c r="C468" s="99"/>
       <c r="D468" s="31"/>
       <c r="E468" s="31"/>
@@ -13501,13 +13515,13 @@
     </row>
     <row r="469" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="25" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B469" s="25" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C469" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D469" s="26" t="s">
         <v>33</v>
@@ -13523,13 +13537,13 @@
     </row>
     <row r="470" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="25" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B470" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C470" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D470" s="26" t="s">
         <v>33</v>
@@ -13545,13 +13559,13 @@
     </row>
     <row r="471" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="25" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B471" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C471" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D471" s="26" t="s">
         <v>33</v>
@@ -13581,7 +13595,7 @@
     </row>
     <row r="473" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="29" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B473" s="29"/>
       <c r="C473" s="29"/>
@@ -13597,9 +13611,9 @@
     </row>
     <row r="474" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="103" t="s">
-        <v>811</v>
-      </c>
-      <c r="B474" s="104"/>
+        <v>813</v>
+      </c>
+      <c r="B474" s="102"/>
       <c r="C474" s="99"/>
       <c r="D474" s="31"/>
       <c r="E474" s="31"/>
@@ -13613,13 +13627,13 @@
     </row>
     <row r="475" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="25" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B475" s="25" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C475" s="25" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D475" s="26" t="s">
         <v>33</v>
@@ -13635,13 +13649,13 @@
     </row>
     <row r="476" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="25" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B476" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C476" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D476" s="26" t="s">
         <v>33</v>
@@ -13657,13 +13671,13 @@
     </row>
     <row r="477" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="25" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B477" s="25" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C477" s="25" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D477" s="26"/>
       <c r="E477" s="26"/>
@@ -13693,9 +13707,9 @@
     </row>
     <row r="479" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="103" t="s">
-        <v>819</v>
-      </c>
-      <c r="B479" s="104"/>
+        <v>821</v>
+      </c>
+      <c r="B479" s="102"/>
       <c r="C479" s="99"/>
       <c r="D479" s="31"/>
       <c r="E479" s="31"/>
@@ -13709,13 +13723,13 @@
     </row>
     <row r="480" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="25" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B480" s="25" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C480" s="25" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D480" s="26" t="s">
         <v>33</v>
@@ -13731,13 +13745,13 @@
     </row>
     <row r="481" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="25" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B481" s="25" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C481" s="25" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E481" s="26"/>
       <c r="F481" s="26"/>
@@ -13752,13 +13766,13 @@
     </row>
     <row r="482" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="25" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B482" s="25" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C482" s="25" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D482" s="26"/>
       <c r="E482" s="26"/>
@@ -13774,13 +13788,13 @@
     </row>
     <row r="483" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="25" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B483" s="25" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C483" s="25" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -13809,9 +13823,9 @@
     </row>
     <row r="485" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="103" t="s">
-        <v>830</v>
-      </c>
-      <c r="B485" s="104"/>
+        <v>832</v>
+      </c>
+      <c r="B485" s="102"/>
       <c r="C485" s="99"/>
       <c r="D485" s="31"/>
       <c r="E485" s="31"/>
@@ -13825,13 +13839,13 @@
     </row>
     <row r="486" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="25" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B486" s="25" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C486" s="25" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D486" s="26" t="s">
         <v>33</v>
@@ -13847,13 +13861,13 @@
     </row>
     <row r="487" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="25" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B487" s="23" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C487" s="68" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="5" t="s">
@@ -13869,13 +13883,13 @@
     </row>
     <row r="488" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="25" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B488" s="23" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C488" s="68" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="5" t="s">
@@ -13891,13 +13905,13 @@
     </row>
     <row r="489" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="25" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B489" s="23" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C489" s="68" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="5" t="s">
@@ -13913,13 +13927,13 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" s="25" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B490" s="23" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C490" s="68" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5" t="s">
@@ -13935,13 +13949,13 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" s="25" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B491" s="23" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C491" s="68" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5" t="s">
@@ -13970,9 +13984,9 @@
     </row>
     <row r="493" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="103" t="s">
-        <v>847</v>
-      </c>
-      <c r="B493" s="104"/>
+        <v>849</v>
+      </c>
+      <c r="B493" s="102"/>
       <c r="C493" s="99"/>
       <c r="D493" s="31"/>
       <c r="E493" s="31"/>
@@ -13986,13 +14000,13 @@
     </row>
     <row r="494" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="25" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B494" s="25" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C494" s="25" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D494" s="26" t="s">
         <v>33</v>
@@ -14008,13 +14022,13 @@
     </row>
     <row r="495" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="25" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B495" s="23" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C495" s="68" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -14030,13 +14044,13 @@
     </row>
     <row r="496" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="25" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B496" s="23" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C496" s="68" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -14052,13 +14066,13 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" s="25" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B497" s="23" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C497" s="23" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D497" s="5" t="s">
         <v>33</v>
@@ -14074,13 +14088,13 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" s="25" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B498" s="23" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C498" s="23" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D498" s="5" t="s">
         <v>33</v>
@@ -14096,13 +14110,13 @@
     </row>
     <row r="499" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B499" s="23" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C499" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -14133,9 +14147,9 @@
     </row>
     <row r="501" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="103" t="s">
-        <v>864</v>
-      </c>
-      <c r="B501" s="104"/>
+        <v>866</v>
+      </c>
+      <c r="B501" s="102"/>
       <c r="C501" s="99"/>
       <c r="D501" s="31"/>
       <c r="E501" s="31"/>
@@ -14149,13 +14163,13 @@
     </row>
     <row r="502" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="25" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B502" s="25" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C502" s="25" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D502" s="26" t="s">
         <v>33</v>
@@ -14171,13 +14185,13 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" s="25" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B503" s="23" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -14195,13 +14209,13 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" s="25" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B504" s="23" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -14217,13 +14231,13 @@
     </row>
     <row r="505" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B505" s="23" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C505" s="68" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -14253,7 +14267,7 @@
     </row>
     <row r="507" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="29" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B507" s="29"/>
       <c r="C507" s="29"/>
@@ -14269,9 +14283,9 @@
     </row>
     <row r="508" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="103" t="s">
-        <v>877</v>
-      </c>
-      <c r="B508" s="104"/>
+        <v>879</v>
+      </c>
+      <c r="B508" s="102"/>
       <c r="C508" s="99"/>
       <c r="D508" s="31"/>
       <c r="E508" s="31"/>
@@ -14285,13 +14299,13 @@
     </row>
     <row r="509" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="23" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B509" s="25" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C509" s="25" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D509" s="26" t="s">
         <v>33</v>
@@ -14321,9 +14335,9 @@
     </row>
     <row r="511" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="103" t="s">
-        <v>881</v>
-      </c>
-      <c r="B511" s="104"/>
+        <v>883</v>
+      </c>
+      <c r="B511" s="102"/>
       <c r="C511" s="99"/>
       <c r="D511" s="31"/>
       <c r="E511" s="31"/>
@@ -14337,13 +14351,13 @@
     </row>
     <row r="512" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="23" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B512" s="25" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C512" s="25" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D512" s="26" t="s">
         <v>33</v>
@@ -14372,9 +14386,9 @@
     </row>
     <row r="514" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="103" t="s">
-        <v>885</v>
-      </c>
-      <c r="B514" s="104"/>
+        <v>887</v>
+      </c>
+      <c r="B514" s="102"/>
       <c r="C514" s="99"/>
       <c r="D514" s="31"/>
       <c r="E514" s="31"/>
@@ -14388,13 +14402,13 @@
     </row>
     <row r="515" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="23" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B515" s="25" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C515" s="25" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D515" s="26" t="s">
         <v>33</v>
@@ -14424,31 +14438,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A511:B511"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A339:B339"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="A429:B429"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A408:B408"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A367:B367"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A403:B403"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A388:B388"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A418:B418"/>
-    <mergeCell ref="A493:B493"/>
-    <mergeCell ref="A456:B456"/>
-    <mergeCell ref="A474:B474"/>
-    <mergeCell ref="A443:B443"/>
-    <mergeCell ref="A468:B468"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="A393:B393"/>
     <mergeCell ref="A449:B449"/>
@@ -14465,9 +14454,34 @@
     <mergeCell ref="A362:B362"/>
     <mergeCell ref="M4:T4"/>
     <mergeCell ref="M2:T2"/>
+    <mergeCell ref="A388:B388"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A418:B418"/>
+    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="A474:B474"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A403:B403"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A511:B511"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A429:B429"/>
+    <mergeCell ref="A501:B501"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GPS_APPChecklistForAutoTest.xlsx
+++ b/GPS_APPChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="903">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -1402,7 +1402,7 @@
     <t>Hiển thị theo biển số phương tiện</t>
   </si>
   <si>
-    <t>43C11214_C</t>
+    <t>43C01339_C</t>
   </si>
   <si>
     <t>Vehicle02</t>
@@ -1510,33 +1510,57 @@
     <t>Biển số xe</t>
   </si>
   <si>
+    <t>43C06120_C</t>
+  </si>
+  <si>
     <t>Vehicle18</t>
   </si>
   <si>
+    <t>17:03:59 10/07/2024</t>
+  </si>
+  <si>
     <t>Vehicle19</t>
   </si>
   <si>
+    <t>Bật</t>
+  </si>
+  <si>
     <t>Vehicle20</t>
   </si>
   <si>
+    <t>174,09 km</t>
+  </si>
+  <si>
     <t>Vehicle21</t>
   </si>
   <si>
     <t>Vận tốc</t>
   </si>
   <si>
+    <t>8 Km/h</t>
+  </si>
+  <si>
     <t>Vehicle22</t>
   </si>
   <si>
     <t>Thời gian dừng đỗ</t>
   </si>
   <si>
+    <t>0 Phút</t>
+  </si>
+  <si>
     <t>Vehicle23</t>
   </si>
   <si>
+    <t>[-999 °C]</t>
+  </si>
+  <si>
     <t>Vehicle24</t>
   </si>
   <si>
+    <t>Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
+  </si>
+  <si>
     <t>1.4 Xem phương tiện</t>
   </si>
   <si>
@@ -1549,12 +1573,21 @@
     <t>Tùy chỉnh</t>
   </si>
   <si>
+    <t>Mở popup "Thiết lập mục ưa thích"</t>
+  </si>
+  <si>
+    <t>Thiết lập mục ưa thích</t>
+  </si>
+  <si>
     <t>Vehicle26</t>
   </si>
   <si>
     <t>Tìm kiếm</t>
   </si>
   <si>
+    <t>Hiển thị tính năng đã nhập</t>
+  </si>
+  <si>
     <t>Vehicle27</t>
   </si>
   <si>
@@ -1564,6 +1597,9 @@
     <t>lớn hơn 6 mục</t>
   </si>
   <si>
+    <t>Bạn đã chọn số tiện ích tối đa. Vui lòng bỏ chọn một tiện ích trước</t>
+  </si>
+  <si>
     <t>Vehicle28</t>
   </si>
   <si>
@@ -1571,6 +1607,9 @@
   </si>
   <si>
     <t>Nhỏ hơn 6 mục</t>
+  </si>
+  <si>
+    <t>Lưu mục ưa thích thành công</t>
   </si>
   <si>
     <t>Vehicle29</t>
@@ -3768,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="J247" sqref="J247"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="M258" sqref="M258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3779,13 +3818,13 @@
     <col min="3" max="3" width="41.5703125" style="100" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="24" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="100" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="100" customWidth="1"/>
     <col min="11" max="11" width="17" style="100" customWidth="1"/>
     <col min="12" max="12" width="31.28515625" style="100" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="100" customWidth="1"/>
-    <col min="14" max="253" width="9.140625" style="100" customWidth="1"/>
-    <col min="254" max="16384" width="9.140625" style="100"/>
+    <col min="14" max="265" width="9.140625" style="100" customWidth="1"/>
+    <col min="266" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3917,7 +3956,7 @@
       </c>
       <c r="D5" s="44">
         <f>COUNTIFS(H:H,"Pass",E:E,"x")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="44">
         <f>COUNTIFS(H:H,"Fail",E:E,"x")</f>
@@ -6240,7 +6279,7 @@
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>210</v>
       </c>
@@ -8740,7 +8779,9 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
-      <c r="H231" s="11"/>
+      <c r="H231" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I231" s="11"/>
       <c r="J231" s="11" t="s">
         <v>42</v>
@@ -8765,7 +8806,9 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
+      <c r="H232" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I232" s="11"/>
       <c r="J232" s="11" t="s">
         <v>42</v>
@@ -8790,7 +8833,9 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="11"/>
+      <c r="H233" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I233" s="11"/>
       <c r="J233" s="11" t="s">
         <v>42</v>
@@ -8840,7 +8885,9 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
-      <c r="H236" s="11"/>
+      <c r="H236" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I236" s="11"/>
       <c r="J236" s="11"/>
       <c r="K236" s="11" t="s">
@@ -8863,7 +8910,9 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
-      <c r="H237" s="11"/>
+      <c r="H237" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I237" s="11"/>
       <c r="J237" s="11"/>
       <c r="K237" s="11" t="s">
@@ -8886,7 +8935,9 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
-      <c r="H238" s="11"/>
+      <c r="H238" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I238" s="11"/>
       <c r="J238" s="11"/>
       <c r="K238" s="11"/>
@@ -9039,7 +9090,9 @@
       </c>
       <c r="F245" s="26"/>
       <c r="G245" s="26"/>
-      <c r="H245" s="11"/>
+      <c r="H245" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I245" s="26"/>
       <c r="J245" s="26"/>
       <c r="K245" s="26"/>
@@ -9061,7 +9114,9 @@
       </c>
       <c r="F246" s="26"/>
       <c r="G246" s="26"/>
-      <c r="H246" s="11"/>
+      <c r="H246" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I246" s="26"/>
       <c r="J246" s="26"/>
       <c r="K246" s="26"/>
@@ -9083,7 +9138,9 @@
       </c>
       <c r="F247" s="26"/>
       <c r="G247" s="26"/>
-      <c r="H247" s="11"/>
+      <c r="H247" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I247" s="26"/>
       <c r="J247" s="26"/>
       <c r="K247" s="26"/>
@@ -9105,7 +9162,9 @@
       </c>
       <c r="F248" s="26"/>
       <c r="G248" s="26"/>
-      <c r="H248" s="11"/>
+      <c r="H248" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I248" s="26"/>
       <c r="J248" s="26"/>
       <c r="K248" s="26"/>
@@ -9127,7 +9186,9 @@
       </c>
       <c r="F249" s="26"/>
       <c r="G249" s="26"/>
-      <c r="H249" s="11"/>
+      <c r="H249" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I249" s="26"/>
       <c r="J249" s="26"/>
       <c r="K249" s="26"/>
@@ -9149,7 +9210,9 @@
       </c>
       <c r="F250" s="26"/>
       <c r="G250" s="26"/>
-      <c r="H250" s="11"/>
+      <c r="H250" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I250" s="26"/>
       <c r="J250" s="26"/>
       <c r="K250" s="26"/>
@@ -9199,16 +9262,20 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
-      <c r="H253" s="11"/>
+      <c r="H253" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I253" s="11"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="11"/>
+      <c r="K253" s="11" t="s">
+        <v>496</v>
+      </c>
       <c r="L253" s="11"/>
       <c r="M253" s="36"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>476</v>
@@ -9218,16 +9285,20 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
-      <c r="H254" s="11"/>
+      <c r="H254" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I254" s="11"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="11"/>
+      <c r="K254" s="11" t="s">
+        <v>498</v>
+      </c>
       <c r="L254" s="11"/>
       <c r="M254" s="36"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>259</v>
@@ -9237,16 +9308,20 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
-      <c r="H255" s="11"/>
+      <c r="H255" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I255" s="11"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="11"/>
+      <c r="K255" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L255" s="11"/>
       <c r="M255" s="36"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>271</v>
@@ -9256,54 +9331,66 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
+      <c r="H256" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I256" s="11"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="11"/>
+      <c r="K256" s="11" t="s">
+        <v>502</v>
+      </c>
       <c r="L256" s="11"/>
       <c r="M256" s="36"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
-      <c r="H257" s="11"/>
+      <c r="H257" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I257" s="11"/>
       <c r="J257" s="11"/>
-      <c r="K257" s="11"/>
+      <c r="K257" s="11" t="s">
+        <v>505</v>
+      </c>
       <c r="L257" s="11"/>
       <c r="M257" s="36"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
+      <c r="H258" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I258" s="11"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="11"/>
+      <c r="K258" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="L258" s="11"/>
       <c r="M258" s="36"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>280</v>
@@ -9313,16 +9400,22 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
-      <c r="H259" s="11"/>
+      <c r="H259" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I259" s="11"/>
       <c r="J259" s="11"/>
-      <c r="K259" s="11"/>
-      <c r="L259" s="11"/>
+      <c r="K259" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="L259" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="M259" s="36"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>255</v>
@@ -9332,10 +9425,14 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
+      <c r="H260" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I260" s="11"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="11"/>
+      <c r="K260" s="11" t="s">
+        <v>512</v>
+      </c>
       <c r="L260" s="11"/>
       <c r="M260" s="36"/>
     </row>
@@ -9355,7 +9452,7 @@
     </row>
     <row r="262" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="65" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B262" s="66"/>
       <c r="C262" s="66"/>
@@ -9374,7 +9471,7 @@
     </row>
     <row r="263" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="62"/>
@@ -9388,95 +9485,115 @@
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C264" s="7"/>
+        <v>516</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
+      <c r="H264" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I264" s="11"/>
       <c r="J264" s="11"/>
-      <c r="K264" s="11"/>
+      <c r="K264" s="11" t="s">
+        <v>518</v>
+      </c>
       <c r="L264" s="11"/>
       <c r="M264" s="36"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C265" s="7"/>
+        <v>520</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>521</v>
+      </c>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
-      <c r="H265" s="11"/>
+      <c r="H265" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I265" s="11"/>
       <c r="J265" s="11"/>
-      <c r="K265" s="11"/>
+      <c r="K265" s="11" t="s">
+        <v>394</v>
+      </c>
       <c r="L265" s="11"/>
       <c r="M265" s="36"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
-      <c r="H266" s="11"/>
+      <c r="H266" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I266" s="11"/>
       <c r="J266" s="11"/>
-      <c r="K266" s="11"/>
+      <c r="K266" s="11" t="s">
+        <v>525</v>
+      </c>
       <c r="L266" s="11"/>
       <c r="M266" s="36"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
+      <c r="H267" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I267" s="11"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="11"/>
+      <c r="K267" s="11" t="s">
+        <v>529</v>
+      </c>
       <c r="L267" s="11"/>
       <c r="M267" s="36"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -9506,7 +9623,7 @@
     </row>
     <row r="270" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="19" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -9523,7 +9640,7 @@
     </row>
     <row r="271" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="108" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="B271" s="109"/>
       <c r="C271" s="20"/>
@@ -9540,7 +9657,7 @@
     </row>
     <row r="272" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B272" s="60"/>
       <c r="C272" s="60"/>
@@ -9557,13 +9674,13 @@
     </row>
     <row r="273" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="21" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>33</v>
@@ -9582,10 +9699,10 @@
     </row>
     <row r="274" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="21" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C274" s="22"/>
       <c r="D274" s="15" t="s">
@@ -9603,10 +9720,10 @@
     </row>
     <row r="275" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="21" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="C275" s="22"/>
       <c r="D275" s="15"/>
@@ -9624,10 +9741,10 @@
     </row>
     <row r="276" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="21" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15" t="s">
@@ -9644,10 +9761,10 @@
     </row>
     <row r="277" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="21" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C277" s="22"/>
       <c r="D277" s="15"/>
@@ -9665,10 +9782,10 @@
     </row>
     <row r="278" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="21" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15" t="s">
@@ -9684,10 +9801,10 @@
     </row>
     <row r="279" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="21" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C279" s="22"/>
       <c r="D279" s="15"/>
@@ -9704,10 +9821,10 @@
     </row>
     <row r="280" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="21" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C280" s="22"/>
       <c r="D280" s="15"/>
@@ -9739,7 +9856,7 @@
     </row>
     <row r="282" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B282" s="60"/>
       <c r="C282" s="60"/>
@@ -9756,13 +9873,13 @@
     </row>
     <row r="283" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="17" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="D283" s="11" t="s">
         <v>33</v>
@@ -9781,13 +9898,13 @@
     </row>
     <row r="284" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C284" s="69" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>33</v>
@@ -9804,13 +9921,13 @@
     </row>
     <row r="285" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>33</v>
@@ -9827,13 +9944,13 @@
     </row>
     <row r="286" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C286" s="69" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D286" s="11" t="s">
         <v>33</v>
@@ -9850,13 +9967,13 @@
     </row>
     <row r="287" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C287" s="69" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="D287" s="11" t="s">
         <v>33</v>
@@ -9873,13 +9990,13 @@
     </row>
     <row r="288" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="D288" s="11" t="s">
         <v>33</v>
@@ -9896,13 +10013,13 @@
     </row>
     <row r="289" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="17" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="11"/>
@@ -9919,13 +10036,13 @@
     </row>
     <row r="290" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="11"/>
@@ -9942,13 +10059,13 @@
     </row>
     <row r="291" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="17" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -9965,13 +10082,13 @@
     </row>
     <row r="292" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -9988,13 +10105,13 @@
     </row>
     <row r="293" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="17" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -10011,10 +10128,10 @@
     </row>
     <row r="294" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="C294" s="18"/>
       <c r="D294" s="11"/>
@@ -10032,10 +10149,10 @@
     </row>
     <row r="295" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="B295" s="69" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="C295" s="18"/>
       <c r="D295" s="11"/>
@@ -10068,7 +10185,7 @@
     </row>
     <row r="297" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B297" s="62"/>
       <c r="C297" s="62"/>
@@ -10085,13 +10202,13 @@
     </row>
     <row r="298" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="D298" s="11" t="s">
         <v>33</v>
@@ -10110,13 +10227,13 @@
     </row>
     <row r="299" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="D299" s="11"/>
       <c r="E299" s="5"/>
@@ -10133,10 +10250,10 @@
     </row>
     <row r="300" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="11" t="s">
@@ -10154,10 +10271,10 @@
     </row>
     <row r="301" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="11" t="s">
@@ -10175,10 +10292,10 @@
     </row>
     <row r="302" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="11" t="s">
@@ -10196,10 +10313,10 @@
     </row>
     <row r="303" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="11" t="s">
@@ -10217,10 +10334,10 @@
     </row>
     <row r="304" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="11"/>
@@ -10238,10 +10355,10 @@
     </row>
     <row r="305" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="17" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="5"/>
@@ -10259,10 +10376,10 @@
     </row>
     <row r="306" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="11" t="s">
@@ -10280,10 +10397,10 @@
     </row>
     <row r="307" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="11" t="s">
@@ -10316,7 +10433,7 @@
     </row>
     <row r="309" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="B309" s="62"/>
       <c r="C309" s="62"/>
@@ -10333,13 +10450,13 @@
     </row>
     <row r="310" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C310" s="68" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>33</v>
@@ -10358,10 +10475,10 @@
     </row>
     <row r="311" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C311" s="23"/>
       <c r="D311" s="11" t="s">
@@ -10379,10 +10496,10 @@
     </row>
     <row r="312" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="17" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C312" s="23"/>
       <c r="E312" s="11"/>
@@ -10395,16 +10512,16 @@
       <c r="J312" s="11"/>
       <c r="K312" s="11"/>
       <c r="L312" s="11" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="M312" s="36"/>
     </row>
     <row r="313" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C313" s="23"/>
       <c r="E313" s="11"/>
@@ -10417,7 +10534,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="11"/>
       <c r="L313" s="11" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="M313" s="36"/>
     </row>
@@ -10438,7 +10555,7 @@
     </row>
     <row r="315" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="106" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B315" s="107"/>
       <c r="C315" s="20"/>
@@ -10455,7 +10572,7 @@
     </row>
     <row r="316" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="108" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="B316" s="109"/>
       <c r="C316" s="20"/>
@@ -10472,7 +10589,7 @@
     </row>
     <row r="317" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B317" s="60"/>
       <c r="C317" s="60"/>
@@ -10489,13 +10606,13 @@
     </row>
     <row r="318" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="21" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>33</v>
@@ -10512,13 +10629,13 @@
     </row>
     <row r="319" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="21" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>33</v>
@@ -10535,13 +10652,13 @@
     </row>
     <row r="320" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="21" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B320" s="22" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>33</v>
@@ -10558,13 +10675,13 @@
     </row>
     <row r="321" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="21" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B321" s="22" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="15" t="s">
@@ -10581,13 +10698,13 @@
     </row>
     <row r="322" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="21" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="B322" s="22" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15" t="s">
@@ -10604,13 +10721,13 @@
     </row>
     <row r="323" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="21" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15" t="s">
@@ -10627,13 +10744,13 @@
     </row>
     <row r="324" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="72" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C324" s="27" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="28" t="s">
@@ -10650,13 +10767,13 @@
     </row>
     <row r="325" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="D325" s="11"/>
       <c r="E325" s="11" t="s">
@@ -10673,13 +10790,13 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="17" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="D326" s="11"/>
       <c r="E326" s="11" t="s">
@@ -10696,13 +10813,13 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="17" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="C327" s="18" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="D327" s="11"/>
       <c r="E327" s="11" t="s">
@@ -10719,13 +10836,13 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="73" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="D328" s="11"/>
       <c r="E328" s="11" t="s">
@@ -10742,13 +10859,13 @@
     </row>
     <row r="329" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="73" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="D329" s="11"/>
       <c r="E329" s="11" t="s">
@@ -10765,13 +10882,13 @@
     </row>
     <row r="330" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="73" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="D330" s="11"/>
       <c r="E330" s="11" t="s">
@@ -10788,13 +10905,13 @@
     </row>
     <row r="331" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="73" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C331" s="23" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="D331" s="11"/>
       <c r="E331" s="11" t="s">
@@ -10811,13 +10928,13 @@
     </row>
     <row r="332" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="73" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="D332" s="11"/>
       <c r="E332" s="11" t="s">
@@ -10834,13 +10951,13 @@
     </row>
     <row r="333" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="73" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="D333" s="11"/>
       <c r="E333" s="11" t="s">
@@ -10857,13 +10974,13 @@
     </row>
     <row r="334" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="73" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="C334" s="18" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="D334" s="11"/>
       <c r="E334" s="11" t="s">
@@ -10895,7 +11012,7 @@
     </row>
     <row r="336" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="98" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="B336" s="98"/>
       <c r="C336" s="98"/>
@@ -10912,7 +11029,7 @@
     </row>
     <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="101" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="B337" s="102"/>
       <c r="C337" s="98"/>
@@ -10929,7 +11046,7 @@
     </row>
     <row r="338" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="29" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -10945,7 +11062,7 @@
     </row>
     <row r="339" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="103" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="B339" s="102"/>
       <c r="C339" s="99"/>
@@ -10961,13 +11078,13 @@
     </row>
     <row r="340" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="25" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="B340" s="25" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C340" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D340" s="26" t="s">
         <v>33</v>
@@ -10983,13 +11100,13 @@
     </row>
     <row r="341" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="25" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B341" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C341" s="25" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="D341" s="26" t="s">
         <v>33</v>
@@ -11005,13 +11122,13 @@
     </row>
     <row r="342" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="25" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="B342" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C342" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D342" s="26" t="s">
         <v>33</v>
@@ -11029,7 +11146,7 @@
     </row>
     <row r="343" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="103" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="B343" s="102"/>
       <c r="C343" s="99"/>
@@ -11045,13 +11162,13 @@
     </row>
     <row r="344" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="25" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="B344" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C344" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D344" s="26" t="s">
         <v>33</v>
@@ -11067,13 +11184,13 @@
     </row>
     <row r="345" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="25" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B345" s="25" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="C345" s="25" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="D345" s="26" t="s">
         <v>33</v>
@@ -11089,13 +11206,13 @@
     </row>
     <row r="346" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="25" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B346" s="25" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C346" s="25" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D346" s="26" t="s">
         <v>33</v>
@@ -11111,13 +11228,13 @@
     </row>
     <row r="347" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="25" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B347" s="25" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="C347" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D347" s="26" t="s">
         <v>33</v>
@@ -11133,13 +11250,13 @@
     </row>
     <row r="348" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B348" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C348" s="25" t="s">
         <v>682</v>
-      </c>
-      <c r="B348" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C348" s="25" t="s">
-        <v>669</v>
       </c>
       <c r="D348" s="26" t="s">
         <v>33</v>
@@ -11171,7 +11288,7 @@
     </row>
     <row r="350" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="103" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="B350" s="102"/>
       <c r="C350" s="99"/>
@@ -11187,13 +11304,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="25" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B351" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C351" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D351" s="26" t="s">
         <v>33</v>
@@ -11209,13 +11326,13 @@
     </row>
     <row r="352" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="25" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="B352" s="25" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="C352" s="25" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="D352" s="26" t="s">
         <v>33</v>
@@ -11231,13 +11348,13 @@
     </row>
     <row r="353" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="25" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="B353" s="25" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="C353" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D353" s="26" t="s">
         <v>33</v>
@@ -11255,13 +11372,13 @@
     </row>
     <row r="354" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="25" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="B354" s="25" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="C354" s="25" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="D354" s="26" t="s">
         <v>33</v>
@@ -11277,13 +11394,13 @@
     </row>
     <row r="355" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="25" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="C355" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D355" s="26" t="s">
         <v>33</v>
@@ -11315,7 +11432,7 @@
     </row>
     <row r="357" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="103" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="B357" s="102"/>
       <c r="C357" s="99"/>
@@ -11331,13 +11448,13 @@
     </row>
     <row r="358" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="25" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="B358" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C358" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D358" s="26" t="s">
         <v>33</v>
@@ -11353,13 +11470,13 @@
     </row>
     <row r="359" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="25" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="B359" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C359" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D359" s="26" t="s">
         <v>33</v>
@@ -11375,13 +11492,13 @@
     </row>
     <row r="360" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="25" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="B360" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C360" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D360" s="26" t="s">
         <v>33</v>
@@ -11413,7 +11530,7 @@
     </row>
     <row r="362" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="103" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="B362" s="102"/>
       <c r="C362" s="99"/>
@@ -11429,13 +11546,13 @@
     </row>
     <row r="363" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="25" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="B363" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C363" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D363" s="26" t="s">
         <v>33</v>
@@ -11451,13 +11568,13 @@
     </row>
     <row r="364" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="25" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="B364" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C364" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D364" s="26" t="s">
         <v>33</v>
@@ -11473,13 +11590,13 @@
     </row>
     <row r="365" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="25" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="B365" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C365" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D365" s="26" t="s">
         <v>33</v>
@@ -11511,7 +11628,7 @@
     </row>
     <row r="367" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="103" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="B367" s="102"/>
       <c r="C367" s="99"/>
@@ -11527,13 +11644,13 @@
     </row>
     <row r="368" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="25" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B368" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C368" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D368" s="26" t="s">
         <v>33</v>
@@ -11549,13 +11666,13 @@
     </row>
     <row r="369" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="25" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="B369" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C369" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D369" s="26" t="s">
         <v>33</v>
@@ -11571,13 +11688,13 @@
     </row>
     <row r="370" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="25" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="B370" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C370" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D370" s="26" t="s">
         <v>33</v>
@@ -11609,7 +11726,7 @@
     </row>
     <row r="372" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="103" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B372" s="102"/>
       <c r="C372" s="99"/>
@@ -11625,13 +11742,13 @@
     </row>
     <row r="373" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="25" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="B373" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C373" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D373" s="26" t="s">
         <v>33</v>
@@ -11647,13 +11764,13 @@
     </row>
     <row r="374" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="25" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="B374" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C374" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D374" s="26" t="s">
         <v>33</v>
@@ -11669,13 +11786,13 @@
     </row>
     <row r="375" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="25" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="B375" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C375" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D375" s="26" t="s">
         <v>33</v>
@@ -11707,7 +11824,7 @@
     </row>
     <row r="377" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="103" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="B377" s="102"/>
       <c r="C377" s="99"/>
@@ -11723,13 +11840,13 @@
     </row>
     <row r="378" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="25" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="B378" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C378" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D378" s="26" t="s">
         <v>33</v>
@@ -11745,13 +11862,13 @@
     </row>
     <row r="379" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="25" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C379" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D379" s="26" t="s">
         <v>33</v>
@@ -11767,13 +11884,13 @@
     </row>
     <row r="380" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="25" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="B380" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C380" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D380" s="26" t="s">
         <v>33</v>
@@ -11805,7 +11922,7 @@
     </row>
     <row r="382" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="103" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="B382" s="102"/>
       <c r="C382" s="99"/>
@@ -11821,13 +11938,13 @@
     </row>
     <row r="383" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="25" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="B383" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C383" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D383" s="26" t="s">
         <v>33</v>
@@ -11843,13 +11960,13 @@
     </row>
     <row r="384" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="25" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="B384" s="25" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="C384" s="25" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D384" s="26" t="s">
         <v>33</v>
@@ -11865,13 +11982,13 @@
     </row>
     <row r="385" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="25" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="B385" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C385" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D385" s="26" t="s">
         <v>33</v>
@@ -11887,13 +12004,13 @@
     </row>
     <row r="386" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="25" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="B386" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C386" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D386" s="26" t="s">
         <v>33</v>
@@ -11925,7 +12042,7 @@
     </row>
     <row r="388" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="103" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="B388" s="102"/>
       <c r="C388" s="99"/>
@@ -11941,13 +12058,13 @@
     </row>
     <row r="389" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="25" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="B389" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C389" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D389" s="26" t="s">
         <v>33</v>
@@ -11963,13 +12080,13 @@
     </row>
     <row r="390" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="25" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="B390" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C390" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D390" s="26" t="s">
         <v>33</v>
@@ -11985,13 +12102,13 @@
     </row>
     <row r="391" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="25" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C391" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D391" s="26" t="s">
         <v>33</v>
@@ -12023,7 +12140,7 @@
     </row>
     <row r="393" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="103" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="B393" s="102"/>
       <c r="C393" s="99"/>
@@ -12039,13 +12156,13 @@
     </row>
     <row r="394" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="25" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="B394" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C394" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D394" s="26" t="s">
         <v>33</v>
@@ -12061,13 +12178,13 @@
     </row>
     <row r="395" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="25" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="B395" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C395" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D395" s="26" t="s">
         <v>33</v>
@@ -12083,13 +12200,13 @@
     </row>
     <row r="396" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="25" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="B396" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C396" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D396" s="26" t="s">
         <v>33</v>
@@ -12121,7 +12238,7 @@
     </row>
     <row r="398" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="103" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="B398" s="102"/>
       <c r="C398" s="99"/>
@@ -12137,13 +12254,13 @@
     </row>
     <row r="399" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="25" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C399" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D399" s="26" t="s">
         <v>33</v>
@@ -12159,13 +12276,13 @@
     </row>
     <row r="400" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="25" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C400" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D400" s="26" t="s">
         <v>33</v>
@@ -12181,13 +12298,13 @@
     </row>
     <row r="401" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="25" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C401" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D401" s="26" t="s">
         <v>33</v>
@@ -12219,7 +12336,7 @@
     </row>
     <row r="403" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="103" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="B403" s="102"/>
       <c r="C403" s="99"/>
@@ -12235,13 +12352,13 @@
     </row>
     <row r="404" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="25" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C404" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D404" s="26" t="s">
         <v>33</v>
@@ -12257,13 +12374,13 @@
     </row>
     <row r="405" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="25" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C405" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D405" s="26" t="s">
         <v>33</v>
@@ -12279,13 +12396,13 @@
     </row>
     <row r="406" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="25" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="B406" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C406" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D406" s="26" t="s">
         <v>33</v>
@@ -12317,7 +12434,7 @@
     </row>
     <row r="408" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="103" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="B408" s="102"/>
       <c r="C408" s="99"/>
@@ -12333,13 +12450,13 @@
     </row>
     <row r="409" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="25" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B409" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C409" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D409" s="26" t="s">
         <v>33</v>
@@ -12355,13 +12472,13 @@
     </row>
     <row r="410" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="25" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="B410" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C410" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D410" s="26" t="s">
         <v>33</v>
@@ -12377,13 +12494,13 @@
     </row>
     <row r="411" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="25" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="B411" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C411" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D411" s="26" t="s">
         <v>33</v>
@@ -12415,7 +12532,7 @@
     </row>
     <row r="413" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="103" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="B413" s="102"/>
       <c r="C413" s="99"/>
@@ -12431,13 +12548,13 @@
     </row>
     <row r="414" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="25" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="B414" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C414" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D414" s="26" t="s">
         <v>33</v>
@@ -12453,13 +12570,13 @@
     </row>
     <row r="415" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="25" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C415" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D415" s="26" t="s">
         <v>33</v>
@@ -12475,13 +12592,13 @@
     </row>
     <row r="416" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="25" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="B416" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C416" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D416" s="26" t="s">
         <v>33</v>
@@ -12513,7 +12630,7 @@
     </row>
     <row r="418" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="103" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="B418" s="102"/>
       <c r="C418" s="99"/>
@@ -12529,13 +12646,13 @@
     </row>
     <row r="419" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="25" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="B419" s="25" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C419" s="25" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D419" s="26" t="s">
         <v>33</v>
@@ -12551,13 +12668,13 @@
     </row>
     <row r="420" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="25" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="B420" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C420" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D420" s="26" t="s">
         <v>33</v>
@@ -12573,13 +12690,13 @@
     </row>
     <row r="421" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="25" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="B421" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C421" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D421" s="26" t="s">
         <v>33</v>
@@ -12611,7 +12728,7 @@
     </row>
     <row r="423" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="29" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="B423" s="29"/>
       <c r="C423" s="29"/>
@@ -12627,7 +12744,7 @@
     </row>
     <row r="424" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="103" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="B424" s="102"/>
       <c r="C424" s="99"/>
@@ -12643,13 +12760,13 @@
     </row>
     <row r="425" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="25" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="B425" s="25" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="C425" s="25" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="D425" s="26" t="s">
         <v>33</v>
@@ -12665,13 +12782,13 @@
     </row>
     <row r="426" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="25" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="B426" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C426" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D426" s="26" t="s">
         <v>33</v>
@@ -12687,13 +12804,13 @@
     </row>
     <row r="427" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="25" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="B427" s="25" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="C427" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D427" s="26" t="s">
         <v>33</v>
@@ -12725,7 +12842,7 @@
     </row>
     <row r="429" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="103" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="B429" s="102"/>
       <c r="C429" s="99"/>
@@ -12741,13 +12858,13 @@
     </row>
     <row r="430" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="25" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="B430" s="25" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="C430" s="25" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="D430" s="26" t="s">
         <v>33</v>
@@ -12763,13 +12880,13 @@
     </row>
     <row r="431" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="25" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="B431" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C431" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D431" s="26" t="s">
         <v>33</v>
@@ -12785,13 +12902,13 @@
     </row>
     <row r="432" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="25" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="B432" s="25" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="C432" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D432" s="26" t="s">
         <v>33</v>
@@ -12807,13 +12924,13 @@
     </row>
     <row r="433" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="25" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="B433" s="25" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="C433" s="25" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="D433" s="26" t="s">
         <v>33</v>
@@ -12843,7 +12960,7 @@
     </row>
     <row r="435" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="103" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="B435" s="102"/>
       <c r="C435" s="99"/>
@@ -12859,13 +12976,13 @@
     </row>
     <row r="436" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="25" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="B436" s="25" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="C436" s="25" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="D436" s="26" t="s">
         <v>33</v>
@@ -12881,13 +12998,13 @@
     </row>
     <row r="437" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="25" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="B437" s="25" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="C437" s="25" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="D437" s="26" t="s">
         <v>33</v>
@@ -12903,13 +13020,13 @@
     </row>
     <row r="438" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="25" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B438" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C438" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D438" s="26" t="s">
         <v>33</v>
@@ -12927,13 +13044,13 @@
     </row>
     <row r="439" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="25" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="B439" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C439" s="25" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="D439" s="26" t="s">
         <v>33</v>
@@ -12949,13 +13066,13 @@
     </row>
     <row r="440" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="25" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="B440" s="25" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="C440" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D440" s="26" t="s">
         <v>33</v>
@@ -12968,7 +13085,7 @@
       <c r="J440" s="26"/>
       <c r="K440" s="26"/>
       <c r="L440" s="26" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="441" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12987,7 +13104,7 @@
     </row>
     <row r="442" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="29" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
@@ -13003,7 +13120,7 @@
     </row>
     <row r="443" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="103" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="B443" s="102"/>
       <c r="C443" s="99"/>
@@ -13019,13 +13136,13 @@
     </row>
     <row r="444" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="25" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="B444" s="25" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C444" s="25" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D444" s="26" t="s">
         <v>33</v>
@@ -13041,13 +13158,13 @@
     </row>
     <row r="445" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="25" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="B445" s="25" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C445" s="25" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D445" s="26" t="s">
         <v>33</v>
@@ -13063,13 +13180,13 @@
     </row>
     <row r="446" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="25" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="B446" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C446" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D446" s="26" t="s">
         <v>33</v>
@@ -13085,13 +13202,13 @@
     </row>
     <row r="447" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="25" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B447" s="25" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C447" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D447" s="26" t="s">
         <v>33</v>
@@ -13121,7 +13238,7 @@
     </row>
     <row r="449" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="103" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="B449" s="102"/>
       <c r="C449" s="99"/>
@@ -13137,13 +13254,13 @@
     </row>
     <row r="450" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="25" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C450" s="25" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D450" s="26" t="s">
         <v>33</v>
@@ -13159,13 +13276,13 @@
     </row>
     <row r="451" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="25" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="B451" s="25" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C451" s="25" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D451" s="26" t="s">
         <v>33</v>
@@ -13181,13 +13298,13 @@
     </row>
     <row r="452" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="25" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C452" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D452" s="26" t="s">
         <v>33</v>
@@ -13205,13 +13322,13 @@
     </row>
     <row r="453" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="25" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C453" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D453" s="26" t="s">
         <v>33</v>
@@ -13227,13 +13344,13 @@
     </row>
     <row r="454" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="25" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C454" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D454" s="26" t="s">
         <v>33</v>
@@ -13263,7 +13380,7 @@
     </row>
     <row r="456" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="103" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="B456" s="102"/>
       <c r="C456" s="99"/>
@@ -13279,13 +13396,13 @@
     </row>
     <row r="457" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="25" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="C457" s="25" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D457" s="26" t="s">
         <v>33</v>
@@ -13301,13 +13418,13 @@
     </row>
     <row r="458" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="25" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C458" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D458" s="26" t="s">
         <v>33</v>
@@ -13323,13 +13440,13 @@
     </row>
     <row r="459" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="25" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C459" s="25" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D459" s="26" t="s">
         <v>33</v>
@@ -13345,13 +13462,13 @@
     </row>
     <row r="460" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="B460" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="B460" s="25" t="s">
-        <v>787</v>
-      </c>
       <c r="C460" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D460" s="26" t="s">
         <v>33</v>
@@ -13381,7 +13498,7 @@
     </row>
     <row r="462" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="103" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="B462" s="102"/>
       <c r="C462" s="99"/>
@@ -13397,13 +13514,13 @@
     </row>
     <row r="463" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="25" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B463" s="25" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="C463" s="25" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D463" s="26" t="s">
         <v>33</v>
@@ -13419,13 +13536,13 @@
     </row>
     <row r="464" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="25" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="B464" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C464" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D464" s="26" t="s">
         <v>33</v>
@@ -13441,13 +13558,13 @@
     </row>
     <row r="465" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="25" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="B465" s="25" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C465" s="25" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D465" s="26" t="s">
         <v>33</v>
@@ -13463,13 +13580,13 @@
     </row>
     <row r="466" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="25" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="B466" s="25" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C466" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D466" s="26" t="s">
         <v>33</v>
@@ -13499,7 +13616,7 @@
     </row>
     <row r="468" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="103" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="B468" s="102"/>
       <c r="C468" s="99"/>
@@ -13515,13 +13632,13 @@
     </row>
     <row r="469" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="25" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="B469" s="25" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="C469" s="25" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D469" s="26" t="s">
         <v>33</v>
@@ -13537,13 +13654,13 @@
     </row>
     <row r="470" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="25" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="B470" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C470" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D470" s="26" t="s">
         <v>33</v>
@@ -13559,13 +13676,13 @@
     </row>
     <row r="471" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="25" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="B471" s="25" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C471" s="25" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D471" s="26" t="s">
         <v>33</v>
@@ -13595,7 +13712,7 @@
     </row>
     <row r="473" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="29" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="B473" s="29"/>
       <c r="C473" s="29"/>
@@ -13611,7 +13728,7 @@
     </row>
     <row r="474" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="103" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="B474" s="102"/>
       <c r="C474" s="99"/>
@@ -13627,13 +13744,13 @@
     </row>
     <row r="475" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="25" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="B475" s="25" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="C475" s="25" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D475" s="26" t="s">
         <v>33</v>
@@ -13649,13 +13766,13 @@
     </row>
     <row r="476" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="25" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="B476" s="25" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C476" s="25" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D476" s="26" t="s">
         <v>33</v>
@@ -13671,13 +13788,13 @@
     </row>
     <row r="477" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="25" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="B477" s="25" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="C477" s="25" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="D477" s="26"/>
       <c r="E477" s="26"/>
@@ -13707,7 +13824,7 @@
     </row>
     <row r="479" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="103" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="B479" s="102"/>
       <c r="C479" s="99"/>
@@ -13723,13 +13840,13 @@
     </row>
     <row r="480" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="25" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="B480" s="25" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="C480" s="25" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D480" s="26" t="s">
         <v>33</v>
@@ -13745,13 +13862,13 @@
     </row>
     <row r="481" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="25" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="B481" s="25" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="C481" s="25" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="E481" s="26"/>
       <c r="F481" s="26"/>
@@ -13766,13 +13883,13 @@
     </row>
     <row r="482" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="25" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="B482" s="25" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="C482" s="25" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="D482" s="26"/>
       <c r="E482" s="26"/>
@@ -13788,13 +13905,13 @@
     </row>
     <row r="483" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="25" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="B483" s="25" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="C483" s="25" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -13823,7 +13940,7 @@
     </row>
     <row r="485" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="103" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="B485" s="102"/>
       <c r="C485" s="99"/>
@@ -13839,13 +13956,13 @@
     </row>
     <row r="486" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="25" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="B486" s="25" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="C486" s="25" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D486" s="26" t="s">
         <v>33</v>
@@ -13861,13 +13978,13 @@
     </row>
     <row r="487" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="25" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B487" s="23" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C487" s="68" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="5" t="s">
@@ -13883,13 +14000,13 @@
     </row>
     <row r="488" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="25" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="B488" s="23" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="C488" s="68" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="5" t="s">
@@ -13905,13 +14022,13 @@
     </row>
     <row r="489" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="25" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="B489" s="23" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="C489" s="68" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="5" t="s">
@@ -13927,13 +14044,13 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" s="25" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="B490" s="23" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="C490" s="68" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5" t="s">
@@ -13949,13 +14066,13 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" s="25" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="B491" s="23" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="C491" s="68" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5" t="s">
@@ -13984,7 +14101,7 @@
     </row>
     <row r="493" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="103" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="B493" s="102"/>
       <c r="C493" s="99"/>
@@ -14000,13 +14117,13 @@
     </row>
     <row r="494" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="25" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="B494" s="25" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="C494" s="25" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D494" s="26" t="s">
         <v>33</v>
@@ -14022,13 +14139,13 @@
     </row>
     <row r="495" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="25" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="B495" s="23" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="C495" s="68" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -14044,13 +14161,13 @@
     </row>
     <row r="496" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="25" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="B496" s="23" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="C496" s="68" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -14066,13 +14183,13 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" s="25" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B497" s="23" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="C497" s="23" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="D497" s="5" t="s">
         <v>33</v>
@@ -14088,13 +14205,13 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" s="25" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="B498" s="23" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="C498" s="23" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="D498" s="5" t="s">
         <v>33</v>
@@ -14110,13 +14227,13 @@
     </row>
     <row r="499" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="B499" s="23" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="C499" s="25" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -14147,7 +14264,7 @@
     </row>
     <row r="501" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="103" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="B501" s="102"/>
       <c r="C501" s="99"/>
@@ -14163,13 +14280,13 @@
     </row>
     <row r="502" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="25" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="B502" s="25" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="C502" s="25" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D502" s="26" t="s">
         <v>33</v>
@@ -14185,13 +14302,13 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" s="25" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="B503" s="23" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -14209,13 +14326,13 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" s="25" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="B504" s="23" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -14231,13 +14348,13 @@
     </row>
     <row r="505" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="25" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="B505" s="23" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="C505" s="68" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -14267,7 +14384,7 @@
     </row>
     <row r="507" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="29" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="B507" s="29"/>
       <c r="C507" s="29"/>
@@ -14283,7 +14400,7 @@
     </row>
     <row r="508" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="103" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="B508" s="102"/>
       <c r="C508" s="99"/>
@@ -14299,13 +14416,13 @@
     </row>
     <row r="509" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="23" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="B509" s="25" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="C509" s="25" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="D509" s="26" t="s">
         <v>33</v>
@@ -14335,7 +14452,7 @@
     </row>
     <row r="511" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="103" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="B511" s="102"/>
       <c r="C511" s="99"/>
@@ -14351,13 +14468,13 @@
     </row>
     <row r="512" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="23" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="B512" s="25" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="C512" s="25" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="D512" s="26" t="s">
         <v>33</v>
@@ -14386,7 +14503,7 @@
     </row>
     <row r="514" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="103" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="B514" s="102"/>
       <c r="C514" s="99"/>
@@ -14402,13 +14519,13 @@
     </row>
     <row r="515" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="23" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="B515" s="25" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="C515" s="25" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="D515" s="26" t="s">
         <v>33</v>
@@ -14481,7 +14598,7 @@
     <mergeCell ref="A501:B501"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GPS_APPChecklistForAutoTest.xlsx
+++ b/GPS_APPChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="691">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -754,9 +754,6 @@
     <t>Giờ cập nhật</t>
   </si>
   <si>
-    <t>case này có sự sai lệch về time cập nhật khoảng 10s</t>
-  </si>
-  <si>
     <t>Minitor90</t>
   </si>
   <si>
@@ -1558,6 +1555,9 @@
     <t>1.3 Icon chuông</t>
   </si>
   <si>
+    <t>"43E02740", "12341234" go to tới công ty"950"</t>
+  </si>
+  <si>
     <t>Toolbar06</t>
   </si>
   <si>
@@ -1597,19 +1597,22 @@
     <t>Tìm kiếm hỗ trợ</t>
   </si>
   <si>
+    <t>Toolbar11</t>
+  </si>
+  <si>
+    <t>Mất tín hiệu</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Hướng dẫn xử lý"</t>
+  </si>
+  <si>
+    <t>Toolbar12</t>
+  </si>
+  <si>
     <t>Đổi biển</t>
   </si>
   <si>
-    <t>Toolbar11</t>
-  </si>
-  <si>
-    <t>Mất tín hiệu</t>
-  </si>
-  <si>
-    <t>Hướng dẫn xử lý</t>
-  </si>
-  <si>
-    <t>Toolbar12</t>
+    <t>Chuyển tới trang "Đổi biển"</t>
   </si>
   <si>
     <t>Toolbar13</t>
@@ -1624,12 +1627,18 @@
     <t>Khóa xe</t>
   </si>
   <si>
+    <t>Chuyển tới trang "Lý do khóa xe"</t>
+  </si>
+  <si>
     <t>Toolbar15</t>
   </si>
   <si>
     <t>Mở khóa xe</t>
   </si>
   <si>
+    <t>Chuyển tới trang "Gửi yêu cầu hỗ trợ"</t>
+  </si>
+  <si>
     <t>Toolbar16</t>
   </si>
   <si>
@@ -1639,72 +1648,99 @@
     <t>Toolbar17</t>
   </si>
   <si>
+    <t>Đóng phí DVMC</t>
+  </si>
+  <si>
+    <t>Toolbar18</t>
+  </si>
+  <si>
+    <t>Nâng cấp</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Nâng cấp Module 4G"</t>
+  </si>
+  <si>
+    <t>Toolbar19</t>
+  </si>
+  <si>
+    <t>Gán xe</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Chọn phương tiện gán nhóm"</t>
+  </si>
+  <si>
+    <t>Toolbar20</t>
+  </si>
+  <si>
+    <t>Đổi kênh camera</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Đổi kênh camera"</t>
+  </si>
+  <si>
+    <t>Toolbar21</t>
+  </si>
+  <si>
+    <t>Tải video</t>
+  </si>
+  <si>
+    <t>Toolbar22</t>
+  </si>
+  <si>
+    <t>Theo dõi phản hồi - Chờ xử lý</t>
+  </si>
+  <si>
+    <t>Các phản hồi có trạng thái "Chờ xử lý"</t>
+  </si>
+  <si>
+    <t>Toolbar23</t>
+  </si>
+  <si>
+    <t>Theo dõi phản hồi - Đang xử lý</t>
+  </si>
+  <si>
+    <t>Các phản hồi có trạng thái "Đang xử lý"</t>
+  </si>
+  <si>
+    <t>Toolbar24</t>
+  </si>
+  <si>
+    <t>Theo dõi phản hồi - Hoàn thành</t>
+  </si>
+  <si>
+    <t>Các phản hồi có trạng thái "Hoàn thành"</t>
+  </si>
+  <si>
+    <t>Toolbar25</t>
+  </si>
+  <si>
+    <t>Theo dõi phản hồi - Tìm kiếm phương tiện</t>
+  </si>
+  <si>
+    <t>Tìm kiêm phương tiện</t>
+  </si>
+  <si>
+    <t>Toolbar26</t>
+  </si>
+  <si>
+    <t>Theo dõi phản hồi - Bộ lọc</t>
+  </si>
+  <si>
+    <t>Mở popup "Bộ lọc tìm kiếm"</t>
+  </si>
+  <si>
     <t>Gọi CSKH</t>
   </si>
   <si>
-    <t>Toolbar18</t>
-  </si>
-  <si>
-    <t>Đóng phí DVMC</t>
-  </si>
-  <si>
-    <t>Toolbar19</t>
-  </si>
-  <si>
-    <t>Nâng cấp</t>
-  </si>
-  <si>
-    <t>Toolbar20</t>
-  </si>
-  <si>
-    <t>Gán xe</t>
-  </si>
-  <si>
-    <t>Toolbar21</t>
-  </si>
-  <si>
-    <t>Đổi kênh camera</t>
-  </si>
-  <si>
-    <t>Toolbar22</t>
-  </si>
-  <si>
-    <t>Tải video</t>
-  </si>
-  <si>
-    <t>Toolbar23</t>
-  </si>
-  <si>
-    <t>Theo dõi phản hồi - Chờ xử lý</t>
-  </si>
-  <si>
-    <t>Toolbar24</t>
-  </si>
-  <si>
-    <t>Theo dõi phản hồi - Đang xử lý</t>
-  </si>
-  <si>
-    <t>Toolbar25</t>
-  </si>
-  <si>
-    <t>Theo dõi phản hồi - Hoàn thành</t>
-  </si>
-  <si>
-    <t>Toolbar26</t>
-  </si>
-  <si>
-    <t>Theo dõi phản hồi - Tìm kiếm phương tiện</t>
+    <t>Giả lập không hỗ trợ</t>
+  </si>
+  <si>
+    <t>1.5 Icon SOS</t>
   </si>
   <si>
     <t>Toolbar27</t>
   </si>
   <si>
-    <t>Theo dõi phản hồi - Bộ lọc</t>
-  </si>
-  <si>
-    <t>1.5 Icon SOS</t>
-  </si>
-  <si>
     <t>Chọn icon "SOS"</t>
   </si>
   <si>
@@ -1717,6 +1753,9 @@
     <t>Gửi SOS</t>
   </si>
   <si>
+    <t>Mở Popup "Bạn có muốn gửi cảnh báo SOS không"</t>
+  </si>
+  <si>
     <t>2. Yêu thích</t>
   </si>
   <si>
@@ -1744,34 +1783,316 @@
     <t>Nhỏ hơn 5 mục</t>
   </si>
   <si>
+    <t>2.2 Giám sát</t>
+  </si>
+  <si>
     <t>Favorite05</t>
   </si>
   <si>
-    <t>2.2 Giám sát</t>
+    <t>Chọn chức năng "Giám sát"</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Giám sát"</t>
+  </si>
+  <si>
+    <t>2.3 Lộ trình</t>
   </si>
   <si>
     <t>Favorite06</t>
   </si>
   <si>
-    <t>Chọn chức năng "Giám sát"</t>
-  </si>
-  <si>
-    <t>Chuyển tới trang "Giám sát"</t>
-  </si>
-  <si>
-    <t>2.3 Lộ trình</t>
-  </si>
-  <si>
-    <t>Favorite07</t>
-  </si>
-  <si>
     <t>Chọn chức năng "Lộ trình"</t>
   </si>
   <si>
     <t>Chuyển tới trang "Lộ trình"</t>
   </si>
   <si>
-    <t>"43E02740", "12341234" go to tới công ty"950"</t>
+    <t>3. Hình ảnh - video</t>
+  </si>
+  <si>
+    <t>3.1 Giám sát hình ảnh</t>
+  </si>
+  <si>
+    <t>Media01</t>
+  </si>
+  <si>
+    <t>Chọn chức năng "Giám sát hình ảnh"</t>
+  </si>
+  <si>
+    <t>Mở popup "Giám sát hình ảnh"</t>
+  </si>
+  <si>
+    <t>Media02</t>
+  </si>
+  <si>
+    <t>Media03</t>
+  </si>
+  <si>
+    <t>Chọn  nhóm</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả phương tiện nhóm đã chọn</t>
+  </si>
+  <si>
+    <t>Media04</t>
+  </si>
+  <si>
+    <t>Sắp xếp ảnh</t>
+  </si>
+  <si>
+    <t>Hiển thị 1 ảnh và nhiều ảnh</t>
+  </si>
+  <si>
+    <t>Media05</t>
+  </si>
+  <si>
+    <t>Làm mới</t>
+  </si>
+  <si>
+    <t>Làm mới ảnh</t>
+  </si>
+  <si>
+    <t>Media06</t>
+  </si>
+  <si>
+    <t>Icon yêu thích</t>
+  </si>
+  <si>
+    <t>Phương tiện sẽ hiển thị đầu danh sách</t>
+  </si>
+  <si>
+    <t>Media07</t>
+  </si>
+  <si>
+    <t>Icon xem tất cả ảnh</t>
+  </si>
+  <si>
+    <t>Media08</t>
+  </si>
+  <si>
+    <t>Icon xem tất cả ảnh - Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm phương tiện theo droplisst</t>
+  </si>
+  <si>
+    <t>Media09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icon xem tất cả ảnh - icon thông báo        </t>
+  </si>
+  <si>
+    <t>Hiện thông báo"Các xe sử dụng gói cước không tích hợp tính năng xem video sẽ không được hiển thị trên tính năng này"</t>
+  </si>
+  <si>
+    <t>3.2 Giám sát camera</t>
+  </si>
+  <si>
+    <t>Media10</t>
+  </si>
+  <si>
+    <t>Chọn chức năng "Giám sát camera"</t>
+  </si>
+  <si>
+    <t>Mở popup "Giám sát nhiều camera"</t>
+  </si>
+  <si>
+    <t>Media11</t>
+  </si>
+  <si>
+    <t>icon thêm camera</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Thêm camera"</t>
+  </si>
+  <si>
+    <t>Media12</t>
+  </si>
+  <si>
+    <t>Hiển thị Phương tiện đã nhập</t>
+  </si>
+  <si>
+    <t>Media13</t>
+  </si>
+  <si>
+    <t>Chọn kênh 1, 2</t>
+  </si>
+  <si>
+    <t>Hiển thị màn hình giám sát kênh 1, 2 của phương tiện đã chọn</t>
+  </si>
+  <si>
+    <t>Media14</t>
+  </si>
+  <si>
+    <t>Media15</t>
+  </si>
+  <si>
+    <t>Kênh</t>
+  </si>
+  <si>
+    <t>Media16</t>
+  </si>
+  <si>
+    <t>Media17</t>
+  </si>
+  <si>
+    <t>Media18</t>
+  </si>
+  <si>
+    <t>Icon tạm dừng</t>
+  </si>
+  <si>
+    <t>Media19</t>
+  </si>
+  <si>
+    <t>Icon Tắt/Bật tiếng</t>
+  </si>
+  <si>
+    <t>Media20</t>
+  </si>
+  <si>
+    <t>Icon chụp ảnh</t>
+  </si>
+  <si>
+    <t>Media21</t>
+  </si>
+  <si>
+    <t>Icon xem toàn màn hình</t>
+  </si>
+  <si>
+    <t>Media22</t>
+  </si>
+  <si>
+    <t>Icon xoay màn hình</t>
+  </si>
+  <si>
+    <t>Media23</t>
+  </si>
+  <si>
+    <t>Icon thoát camera</t>
+  </si>
+  <si>
+    <t>Media24</t>
+  </si>
+  <si>
+    <t>Chỉ hiện thị các phương tiện đang bật camera</t>
+  </si>
+  <si>
+    <t>Media25</t>
+  </si>
+  <si>
+    <t>Đặt lại</t>
+  </si>
+  <si>
+    <t>Xóa các kênh camera đã chọn trước đó</t>
+  </si>
+  <si>
+    <t>3.3 Xem lại video - Tổng quan</t>
+  </si>
+  <si>
+    <t>Media26</t>
+  </si>
+  <si>
+    <t>Chọn chức năng "Xem lại video"</t>
+  </si>
+  <si>
+    <t>Mở popup "Xem lại video"</t>
+  </si>
+  <si>
+    <t>3.3a Tổng quan</t>
+  </si>
+  <si>
+    <t>Media27</t>
+  </si>
+  <si>
+    <t>Media28</t>
+  </si>
+  <si>
+    <t>Chọn "thời gian có video"</t>
+  </si>
+  <si>
+    <t>3.3b Xem thiết bị</t>
+  </si>
+  <si>
+    <t>Media29</t>
+  </si>
+  <si>
+    <t>Hiển thị kênh video phương tiện đã chọn</t>
+  </si>
+  <si>
+    <t>Media30</t>
+  </si>
+  <si>
+    <t>Xem nhiều kênh của phương tiện</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang "Xem lại nhiều video"</t>
+  </si>
+  <si>
+    <t>Media31</t>
+  </si>
+  <si>
+    <t>Icon "Chọn kênh"</t>
+  </si>
+  <si>
+    <t>Media32</t>
+  </si>
+  <si>
+    <t>Checkbox Phát tự động theo kênh</t>
+  </si>
+  <si>
+    <t>Media33</t>
+  </si>
+  <si>
+    <t>Media34</t>
+  </si>
+  <si>
+    <t>Media35</t>
+  </si>
+  <si>
+    <t>Media36</t>
+  </si>
+  <si>
+    <t>Click vào video</t>
+  </si>
+  <si>
+    <t>43C11008_C</t>
+  </si>
+  <si>
+    <t>Media37</t>
+  </si>
+  <si>
+    <t>Media38</t>
+  </si>
+  <si>
+    <t>Media39</t>
+  </si>
+  <si>
+    <t>Media40</t>
+  </si>
+  <si>
+    <t>Media41</t>
+  </si>
+  <si>
+    <t>Icon tải về cloud</t>
+  </si>
+  <si>
+    <t>Media42</t>
+  </si>
+  <si>
+    <t>Media43</t>
+  </si>
+  <si>
+    <t>Media44</t>
+  </si>
+  <si>
+    <t>Media45</t>
+  </si>
+  <si>
+    <t>Media46</t>
+  </si>
+  <si>
+    <t>3.3c Tải về và cloud</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +2170,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1893,8 +2214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2032,19 +2359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -2094,11 +2408,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2266,7 +2604,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2308,7 +2645,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2326,42 +2663,70 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2373,9 +2738,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2518,6 +2888,1006 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1123951</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1367029</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305051" y="97002601"/>
+          <a:ext cx="243078" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="97269300"/>
+          <a:ext cx="161925" cy="140335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009938</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="97526475"/>
+          <a:ext cx="143163" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1114426</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1285876</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295526" y="97745551"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1552576</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743076</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733676" y="97974150"/>
+          <a:ext cx="190500" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>3761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="83610451"/>
+          <a:ext cx="219075" cy="213310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438785</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="84582000"/>
+          <a:ext cx="229235" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>289833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="85763101"/>
+          <a:ext cx="238125" cy="251732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1149453</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="87001350"/>
+          <a:ext cx="206478" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1536</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="92021026"/>
+          <a:ext cx="182511" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>214746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="98450400"/>
+          <a:ext cx="171450" cy="176646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1390651</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676401</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>224088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571751" y="99631500"/>
+          <a:ext cx="285750" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1470025</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="101784151"/>
+          <a:ext cx="174625" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1438276</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1643430</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619376" y="102012751"/>
+          <a:ext cx="205154" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>220908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="102250876"/>
+          <a:ext cx="200025" cy="192332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876426</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2054470</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057526" y="102508051"/>
+          <a:ext cx="178044" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>221932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="102727125"/>
+          <a:ext cx="200025" cy="193357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1618869</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="102993825"/>
+          <a:ext cx="142494" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="104660700"/>
+          <a:ext cx="209550" cy="157163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>222251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="105851326"/>
+          <a:ext cx="209550" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="174625" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="100831651"/>
+          <a:ext cx="174625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1438276</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="205154" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619376" y="101060251"/>
+          <a:ext cx="205154" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="200025" cy="192332"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="101298376"/>
+          <a:ext cx="200025" cy="192332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876426</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="178044" cy="171450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057526" y="101555551"/>
+          <a:ext cx="178044" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="209550" cy="165100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="107994451"/>
+          <a:ext cx="209550" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2806,26 +4176,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T324"/>
+  <dimension ref="A1:T381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M285" sqref="M285"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J376" sqref="J376"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="90" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="90" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="90" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="98" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="20" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="90" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="90" customWidth="1"/>
-    <col min="11" max="11" width="17" style="90" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="90" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="90" customWidth="1"/>
-    <col min="14" max="276" width="9.140625" style="90" customWidth="1"/>
-    <col min="277" max="16384" width="9.140625" style="90"/>
+    <col min="9" max="9" width="18.85546875" style="98" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="98" customWidth="1"/>
+    <col min="11" max="11" width="17" style="98" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="98" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="98" customWidth="1"/>
+    <col min="14" max="340" width="9.140625" style="98" customWidth="1"/>
+    <col min="341" max="16384" width="9.140625" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2838,20 +4208,20 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="58"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -2863,21 +4233,21 @@
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
-      <c r="H2" s="59"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -2895,21 +4265,21 @@
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="76"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="33"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -2918,7 +4288,7 @@
       </c>
       <c r="C4" s="36">
         <f>COUNTIF(D:D,"x")</f>
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D4" s="34">
         <f>COUNTIFS(H:H,"Pass",D:D,"x")</f>
@@ -2930,21 +4300,21 @@
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="59"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -2953,11 +4323,11 @@
       </c>
       <c r="C5" s="36">
         <f>COUNTIF(E:E,"x")</f>
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D5" s="34">
         <f>COUNTIFS(H:H,"Pass",E:E,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="34">
         <f>COUNTIFS(H:H,"Fail",E:E,"x")</f>
@@ -2965,21 +4335,21 @@
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="60"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35"/>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2988,7 +4358,7 @@
       </c>
       <c r="C6" s="36">
         <f>COUNTIF(F:F,"x")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="34">
         <f>COUNTIFS(H:H,"Pass",F:F,"x")</f>
@@ -3000,7 +4370,7 @@
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="60"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
@@ -3018,7 +4388,7 @@
       </c>
       <c r="D7" s="34">
         <f>COUNTIFS(H:H,"Pass",G:G,"x")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="34">
         <f>COUNTIFS(H:H,"Fail",G:G,"x")</f>
@@ -3026,7 +4396,7 @@
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="60"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -3055,7 +4425,7 @@
       <c r="G8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="60" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="39" t="s">
@@ -3082,7 +4452,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
-      <c r="H9" s="62"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
@@ -3099,7 +4469,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="63"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
@@ -3124,7 +4494,7 @@
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="60"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34" t="s">
         <v>34</v>
@@ -3148,7 +4518,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34" t="s">
         <v>38</v>
@@ -3172,7 +4542,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34" t="s">
         <v>41</v>
@@ -3196,7 +4566,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="60"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34" t="s">
         <v>45</v>
@@ -3220,7 +4590,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="60"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34" t="s">
         <v>49</v>
@@ -3244,7 +4614,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="34"/>
-      <c r="H16" s="60"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -3266,7 +4636,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="60"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
@@ -3288,7 +4658,7 @@
       <c r="G18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34" t="s">
         <v>34</v>
@@ -3312,7 +4682,7 @@
       <c r="G19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34" t="s">
         <v>34</v>
@@ -3327,7 +4697,7 @@
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
-      <c r="H20" s="66"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
@@ -3343,7 +4713,7 @@
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="67"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
@@ -3624,20 +4994,20 @@
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="54" t="s">
@@ -3649,7 +5019,7 @@
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
       <c r="G36" s="56"/>
-      <c r="H36" s="67"/>
+      <c r="H36" s="66"/>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
@@ -3703,9 +5073,9 @@
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
-      <c r="H39" s="67"/>
+      <c r="H39" s="66"/>
       <c r="I39" s="56"/>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="56"/>
@@ -3779,7 +5149,7 @@
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
       <c r="G43" s="56"/>
-      <c r="H43" s="67"/>
+      <c r="H43" s="66"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
       <c r="K43" s="56"/>
@@ -3795,7 +5165,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="65"/>
+      <c r="H44" s="64"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
         <v>112</v>
@@ -4046,7 +5416,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="65"/>
+      <c r="H56" s="64"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
         <v>144</v>
@@ -4297,7 +5667,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="65"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
         <v>156</v>
@@ -4548,7 +5918,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="65"/>
+      <c r="H80" s="64"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
         <v>168</v>
@@ -4799,7 +6169,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="65"/>
+      <c r="H92" s="64"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
         <v>41</v>
@@ -5050,7 +6420,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="65"/>
+      <c r="H104" s="64"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4" t="s">
         <v>191</v>
@@ -5256,7 +6626,7 @@
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
     </row>
-    <row r="114" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>201</v>
       </c>
@@ -5301,7 +6671,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="65"/>
+      <c r="H116" s="64"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4" t="s">
         <v>34</v>
@@ -5552,7 +6922,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="65"/>
+      <c r="H128" s="64"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4" t="s">
         <v>214</v>
@@ -5794,7 +7164,7 @@
       <c r="L139" s="21"/>
     </row>
     <row r="140" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="73" t="s">
+      <c r="A140" s="72" t="s">
         <v>225</v>
       </c>
       <c r="B140" s="48"/>
@@ -5803,9 +7173,9 @@
       <c r="E140" s="49"/>
       <c r="F140" s="49"/>
       <c r="G140" s="49"/>
-      <c r="H140" s="64"/>
+      <c r="H140" s="63"/>
       <c r="I140" s="49"/>
-      <c r="J140" s="71" t="s">
+      <c r="J140" s="70" t="s">
         <v>41</v>
       </c>
       <c r="K140" s="49"/>
@@ -5904,9 +7274,9 @@
       <c r="E145" s="56"/>
       <c r="F145" s="56"/>
       <c r="G145" s="56"/>
-      <c r="H145" s="67"/>
+      <c r="H145" s="66"/>
       <c r="I145" s="56"/>
-      <c r="J145" s="72" t="s">
+      <c r="J145" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K145" s="56"/>
@@ -5938,7 +7308,7 @@
       <c r="A147" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="68" t="s">
+      <c r="B147" s="67" t="s">
         <v>241</v>
       </c>
       <c r="C147" s="6"/>
@@ -5958,7 +7328,7 @@
       <c r="A148" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B148" s="68" t="s">
+      <c r="B148" s="67" t="s">
         <v>243</v>
       </c>
       <c r="C148" s="6"/>
@@ -5972,16 +7342,14 @@
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
       <c r="K148" s="21"/>
-      <c r="L148" s="21" t="s">
-        <v>244</v>
-      </c>
+      <c r="L148" s="21"/>
     </row>
     <row r="149" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B149" s="67" t="s">
         <v>245</v>
-      </c>
-      <c r="B149" s="68" t="s">
-        <v>246</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="21"/>
@@ -5998,10 +7366,10 @@
     </row>
     <row r="150" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B150" s="67" t="s">
         <v>247</v>
-      </c>
-      <c r="B150" s="68" t="s">
-        <v>248</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="21"/>
@@ -6014,16 +7382,14 @@
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
       <c r="K150" s="21"/>
-      <c r="L150" s="21" t="s">
-        <v>244</v>
-      </c>
+      <c r="L150" s="21"/>
     </row>
     <row r="151" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B151" s="67" t="s">
         <v>249</v>
-      </c>
-      <c r="B151" s="68" t="s">
-        <v>250</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="21"/>
@@ -6040,10 +7406,10 @@
     </row>
     <row r="152" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B152" s="67" t="s">
         <v>251</v>
-      </c>
-      <c r="B152" s="68" t="s">
-        <v>252</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="21"/>
@@ -6060,10 +7426,10 @@
     </row>
     <row r="153" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B153" s="67" t="s">
         <v>253</v>
-      </c>
-      <c r="B153" s="68" t="s">
-        <v>254</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="21"/>
@@ -6080,10 +7446,10 @@
     </row>
     <row r="154" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B154" s="67" t="s">
         <v>255</v>
-      </c>
-      <c r="B154" s="68" t="s">
-        <v>256</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="21"/>
@@ -6100,10 +7466,10 @@
     </row>
     <row r="155" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="68" t="s">
         <v>257</v>
-      </c>
-      <c r="B155" s="69" t="s">
-        <v>258</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="21"/>
@@ -6120,10 +7486,10 @@
     </row>
     <row r="156" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B156" s="68" t="s">
         <v>259</v>
-      </c>
-      <c r="B156" s="69" t="s">
-        <v>260</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="21"/>
@@ -6140,10 +7506,10 @@
     </row>
     <row r="157" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B157" s="68" t="s">
         <v>261</v>
-      </c>
-      <c r="B157" s="69" t="s">
-        <v>262</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="21"/>
@@ -6160,10 +7526,10 @@
     </row>
     <row r="158" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B158" s="68" t="s">
         <v>263</v>
-      </c>
-      <c r="B158" s="69" t="s">
-        <v>264</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="21"/>
@@ -6180,9 +7546,9 @@
     </row>
     <row r="159" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B159" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B159" s="67" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="6"/>
@@ -6200,10 +7566,10 @@
     </row>
     <row r="160" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" s="68" t="s">
         <v>266</v>
-      </c>
-      <c r="B160" s="69" t="s">
-        <v>267</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="21"/>
@@ -6220,10 +7586,10 @@
     </row>
     <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" s="67" t="s">
         <v>268</v>
-      </c>
-      <c r="B161" s="68" t="s">
-        <v>269</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="21"/>
@@ -6240,10 +7606,10 @@
     </row>
     <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B162" s="67" t="s">
         <v>270</v>
-      </c>
-      <c r="B162" s="68" t="s">
-        <v>271</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="21"/>
@@ -6260,10 +7626,10 @@
     </row>
     <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B163" s="68" t="s">
         <v>272</v>
-      </c>
-      <c r="B163" s="69" t="s">
-        <v>273</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="21"/>
@@ -6280,10 +7646,10 @@
     </row>
     <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" s="68" t="s">
         <v>274</v>
-      </c>
-      <c r="B164" s="69" t="s">
-        <v>275</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="21"/>
@@ -6300,10 +7666,10 @@
     </row>
     <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B165" s="68" t="s">
         <v>276</v>
-      </c>
-      <c r="B165" s="69" t="s">
-        <v>277</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="21"/>
@@ -6320,10 +7686,10 @@
     </row>
     <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" s="67" t="s">
         <v>278</v>
-      </c>
-      <c r="B166" s="68" t="s">
-        <v>279</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="21"/>
@@ -6340,10 +7706,10 @@
     </row>
     <row r="167" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B167" s="67" t="s">
         <v>280</v>
-      </c>
-      <c r="B167" s="68" t="s">
-        <v>281</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="21"/>
@@ -6360,10 +7726,10 @@
     </row>
     <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B168" s="68" t="s">
         <v>282</v>
-      </c>
-      <c r="B168" s="69" t="s">
-        <v>283</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="21"/>
@@ -6380,10 +7746,10 @@
     </row>
     <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B169" s="67" t="s">
         <v>284</v>
-      </c>
-      <c r="B169" s="68" t="s">
-        <v>285</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="21"/>
@@ -6400,10 +7766,10 @@
     </row>
     <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B170" s="67" t="s">
         <v>286</v>
-      </c>
-      <c r="B170" s="68" t="s">
-        <v>287</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="21"/>
@@ -6420,10 +7786,10 @@
     </row>
     <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" s="67" t="s">
         <v>288</v>
-      </c>
-      <c r="B171" s="68" t="s">
-        <v>289</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="21"/>
@@ -6440,10 +7806,10 @@
     </row>
     <row r="172" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B172" s="68" t="s">
         <v>290</v>
-      </c>
-      <c r="B172" s="69" t="s">
-        <v>291</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="21"/>
@@ -6460,10 +7826,10 @@
     </row>
     <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B173" s="69" t="s">
         <v>292</v>
-      </c>
-      <c r="B173" s="70" t="s">
-        <v>293</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="21"/>
@@ -6480,10 +7846,10 @@
     </row>
     <row r="174" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B174" s="68" t="s">
         <v>294</v>
-      </c>
-      <c r="B174" s="69" t="s">
-        <v>295</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="21"/>
@@ -6500,10 +7866,10 @@
     </row>
     <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B175" s="68" t="s">
         <v>296</v>
-      </c>
-      <c r="B175" s="69" t="s">
-        <v>297</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="21"/>
@@ -6520,10 +7886,10 @@
     </row>
     <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B176" s="68" t="s">
         <v>298</v>
-      </c>
-      <c r="B176" s="69" t="s">
-        <v>299</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="21"/>
@@ -6540,10 +7906,10 @@
     </row>
     <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B177" s="68" t="s">
         <v>300</v>
-      </c>
-      <c r="B177" s="69" t="s">
-        <v>301</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="21"/>
@@ -6560,10 +7926,10 @@
     </row>
     <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B178" s="67" t="s">
         <v>302</v>
-      </c>
-      <c r="B178" s="68" t="s">
-        <v>303</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
@@ -6580,10 +7946,10 @@
     </row>
     <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B179" s="67" t="s">
         <v>304</v>
-      </c>
-      <c r="B179" s="68" t="s">
-        <v>305</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="21"/>
@@ -6600,10 +7966,10 @@
     </row>
     <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B180" s="67" t="s">
         <v>306</v>
-      </c>
-      <c r="B180" s="68" t="s">
-        <v>307</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="21"/>
@@ -6620,10 +7986,10 @@
     </row>
     <row r="181" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B181" s="67" t="s">
         <v>308</v>
-      </c>
-      <c r="B181" s="68" t="s">
-        <v>309</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="21"/>
@@ -6640,10 +8006,10 @@
     </row>
     <row r="182" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B182" s="67" t="s">
         <v>310</v>
-      </c>
-      <c r="B182" s="68" t="s">
-        <v>311</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="21"/>
@@ -6673,7 +8039,7 @@
     </row>
     <row r="184" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B184" s="55"/>
       <c r="C184" s="55"/>
@@ -6681,9 +8047,9 @@
       <c r="E184" s="56"/>
       <c r="F184" s="56"/>
       <c r="G184" s="56"/>
-      <c r="H184" s="67"/>
+      <c r="H184" s="66"/>
       <c r="I184" s="56"/>
-      <c r="J184" s="72" t="s">
+      <c r="J184" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K184" s="56"/>
@@ -6691,13 +8057,13 @@
     </row>
     <row r="185" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="21" t="s">
@@ -6712,13 +8078,13 @@
     </row>
     <row r="186" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="5" t="s">
@@ -6734,13 +8100,13 @@
     </row>
     <row r="187" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D187" s="21"/>
       <c r="E187" s="5" t="s">
@@ -6756,13 +8122,13 @@
     </row>
     <row r="188" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="D188" s="21"/>
       <c r="E188" s="5"/>
@@ -6778,13 +8144,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="C189" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
@@ -6800,13 +8166,13 @@
     </row>
     <row r="190" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
@@ -6822,13 +8188,13 @@
     </row>
     <row r="191" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B191" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="B191" s="19" t="s">
+      <c r="C191" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
@@ -6844,13 +8210,13 @@
     </row>
     <row r="192" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="C192" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
@@ -6866,13 +8232,13 @@
     </row>
     <row r="193" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B193" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="C193" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
@@ -6888,13 +8254,13 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
@@ -6910,13 +8276,13 @@
     </row>
     <row r="195" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
@@ -6932,13 +8298,13 @@
     </row>
     <row r="196" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
@@ -6954,13 +8320,13 @@
     </row>
     <row r="197" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
@@ -6976,13 +8342,13 @@
     </row>
     <row r="198" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
@@ -6998,13 +8364,13 @@
     </row>
     <row r="199" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="C199" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
@@ -7020,13 +8386,13 @@
     </row>
     <row r="200" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
@@ -7042,13 +8408,13 @@
     </row>
     <row r="201" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
@@ -7064,13 +8430,13 @@
     </row>
     <row r="202" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
@@ -7086,13 +8452,13 @@
     </row>
     <row r="203" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="D203" s="21"/>
       <c r="E203" s="21"/>
@@ -7108,13 +8474,13 @@
     </row>
     <row r="204" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="21"/>
@@ -7130,13 +8496,13 @@
     </row>
     <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
@@ -7152,13 +8518,13 @@
     </row>
     <row r="206" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B206" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="B206" s="19" t="s">
+      <c r="C206" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -7174,13 +8540,13 @@
     </row>
     <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="19" t="s">
+      <c r="C207" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -7196,13 +8562,13 @@
     </row>
     <row r="208" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B208" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="B208" s="19" t="s">
+      <c r="C208" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -7218,13 +8584,13 @@
     </row>
     <row r="209" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B209" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="B209" s="19" t="s">
+      <c r="C209" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -7240,13 +8606,13 @@
     </row>
     <row r="210" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B210" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="B210" s="19" t="s">
+      <c r="C210" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -7262,13 +8628,13 @@
     </row>
     <row r="211" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="B211" s="19" t="s">
+      <c r="C211" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -7284,13 +8650,13 @@
     </row>
     <row r="212" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B212" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B212" s="19" t="s">
+      <c r="C212" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -7306,13 +8672,13 @@
     </row>
     <row r="213" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B213" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="B213" s="19" t="s">
+      <c r="C213" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -7328,13 +8694,13 @@
     </row>
     <row r="214" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B214" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="C214" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -7350,13 +8716,13 @@
     </row>
     <row r="215" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B215" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B215" s="19" t="s">
+      <c r="C215" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
@@ -7388,7 +8754,7 @@
     </row>
     <row r="217" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -7405,13 +8771,13 @@
     </row>
     <row r="218" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="C218" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>33</v>
@@ -7428,15 +8794,15 @@
       <c r="L218" s="11"/>
       <c r="M218" s="26"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
@@ -7453,13 +8819,13 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B220" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="C220" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
@@ -7476,13 +8842,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -7499,13 +8865,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B222" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -7522,13 +8888,13 @@
     </row>
     <row r="223" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
@@ -7545,10 +8911,10 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B224" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="11"/>
@@ -7566,10 +8932,10 @@
     </row>
     <row r="225" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="11"/>
@@ -7587,10 +8953,10 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="11"/>
@@ -7608,10 +8974,10 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="11"/>
@@ -7629,10 +8995,10 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="11"/>
@@ -7664,31 +9030,31 @@
       <c r="M229" s="26"/>
     </row>
     <row r="230" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="77" t="s">
-        <v>435</v>
-      </c>
-      <c r="B230" s="77"/>
-      <c r="C230" s="77"/>
-      <c r="D230" s="78"/>
-      <c r="E230" s="78"/>
-      <c r="F230" s="78"/>
-      <c r="G230" s="78"/>
-      <c r="H230" s="78"/>
-      <c r="I230" s="78"/>
-      <c r="J230" s="78"/>
-      <c r="K230" s="78"/>
-      <c r="L230" s="78"/>
+      <c r="A230" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="B230" s="76"/>
+      <c r="C230" s="76"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="77"/>
+      <c r="G230" s="77"/>
+      <c r="H230" s="77"/>
+      <c r="I230" s="77"/>
+      <c r="J230" s="77"/>
+      <c r="K230" s="77"/>
+      <c r="L230" s="77"/>
       <c r="M230" s="26"/>
     </row>
     <row r="231" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="C231" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
@@ -7705,13 +9071,13 @@
     </row>
     <row r="232" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="C232" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -7728,13 +9094,13 @@
     </row>
     <row r="233" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
@@ -7757,7 +9123,7 @@
     </row>
     <row r="235" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B235" s="55"/>
       <c r="C235" s="55"/>
@@ -7765,9 +9131,9 @@
       <c r="E235" s="56"/>
       <c r="F235" s="56"/>
       <c r="G235" s="56"/>
-      <c r="H235" s="67"/>
+      <c r="H235" s="66"/>
       <c r="I235" s="56"/>
-      <c r="J235" s="72" t="s">
+      <c r="J235" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K235" s="56"/>
@@ -7776,13 +9142,13 @@
     </row>
     <row r="236" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B236" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="C236" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
@@ -7797,13 +9163,13 @@
     </row>
     <row r="237" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="C237" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -7818,13 +9184,13 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="C238" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -7854,7 +9220,7 @@
     </row>
     <row r="240" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B240" s="55"/>
       <c r="C240" s="55"/>
@@ -7862,9 +9228,9 @@
       <c r="E240" s="56"/>
       <c r="F240" s="56"/>
       <c r="G240" s="56"/>
-      <c r="H240" s="67"/>
+      <c r="H240" s="66"/>
       <c r="I240" s="56"/>
-      <c r="J240" s="72" t="s">
+      <c r="J240" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K240" s="56"/>
@@ -7873,7 +9239,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>114</v>
@@ -7895,7 +9261,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>117</v>
@@ -7917,7 +9283,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>120</v>
@@ -7939,7 +9305,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>123</v>
@@ -7961,7 +9327,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>126</v>
@@ -7983,7 +9349,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>129</v>
@@ -8005,7 +9371,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>132</v>
@@ -8027,7 +9393,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>135</v>
@@ -8049,7 +9415,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>138</v>
@@ -8071,10 +9437,10 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>142</v>
@@ -8106,7 +9472,7 @@
     </row>
     <row r="252" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="54" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B252" s="55"/>
       <c r="C252" s="55"/>
@@ -8114,9 +9480,9 @@
       <c r="E252" s="56"/>
       <c r="F252" s="56"/>
       <c r="G252" s="56"/>
-      <c r="H252" s="67"/>
+      <c r="H252" s="66"/>
       <c r="I252" s="56"/>
-      <c r="J252" s="72" t="s">
+      <c r="J252" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K252" s="56"/>
@@ -8125,15 +9491,16 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
-      <c r="F253" s="11"/>
+      <c r="E253" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="11"/>
@@ -8144,14 +9511,16 @@
     </row>
     <row r="254" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
+      <c r="E254" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
@@ -8163,14 +9532,16 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C255" s="7"/>
       <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
+      <c r="E255" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
@@ -8182,14 +9553,16 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C256" s="7"/>
       <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
+      <c r="E256" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
@@ -8201,14 +9574,16 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
+      <c r="E257" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
@@ -8220,14 +9595,16 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B258" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="E258" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
@@ -8239,14 +9616,16 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="E259" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
@@ -8260,14 +9639,16 @@
     </row>
     <row r="260" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="E260" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
@@ -8293,7 +9674,7 @@
     </row>
     <row r="262" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B262" s="55"/>
       <c r="C262" s="55"/>
@@ -8301,9 +9682,9 @@
       <c r="E262" s="56"/>
       <c r="F262" s="56"/>
       <c r="G262" s="56"/>
-      <c r="H262" s="67"/>
+      <c r="H262" s="66"/>
       <c r="I262" s="56"/>
-      <c r="J262" s="72" t="s">
+      <c r="J262" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K262" s="56"/>
@@ -8312,7 +9693,7 @@
     </row>
     <row r="263" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="51"/>
@@ -8320,7 +9701,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
-      <c r="H263" s="65"/>
+      <c r="H263" s="64"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
@@ -8328,17 +9709,19 @@
     </row>
     <row r="264" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B264" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="C264" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
+      <c r="F264" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="11"/>
@@ -8349,17 +9732,19 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="C265" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
+      <c r="F265" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="11"/>
@@ -8370,17 +9755,19 @@
     </row>
     <row r="266" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B266" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="C266" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
-      <c r="F266" s="11"/>
+      <c r="F266" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="11"/>
@@ -8391,17 +9778,19 @@
     </row>
     <row r="267" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B267" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="C267" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
+      <c r="F267" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="11"/>
@@ -8412,17 +9801,19 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="C268" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
-      <c r="F268" s="11"/>
+      <c r="F268" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="11"/>
@@ -8448,7 +9839,7 @@
     </row>
     <row r="270" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -8464,18 +9855,18 @@
       <c r="M270" s="26"/>
     </row>
     <row r="271" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="93" t="s">
-        <v>497</v>
-      </c>
-      <c r="B271" s="94"/>
-      <c r="C271" s="84"/>
-      <c r="D271" s="85"/>
-      <c r="E271" s="85"/>
-      <c r="F271" s="85"/>
-      <c r="G271" s="85"/>
-      <c r="H271" s="85"/>
-      <c r="I271" s="85"/>
-      <c r="J271" s="72" t="s">
+      <c r="A271" s="100" t="s">
+        <v>496</v>
+      </c>
+      <c r="B271" s="101"/>
+      <c r="C271" s="81"/>
+      <c r="D271" s="82"/>
+      <c r="E271" s="82"/>
+      <c r="F271" s="82"/>
+      <c r="G271" s="82"/>
+      <c r="H271" s="82"/>
+      <c r="I271" s="82"/>
+      <c r="J271" s="71" t="s">
         <v>41</v>
       </c>
       <c r="K271" s="13"/>
@@ -8484,30 +9875,30 @@
     </row>
     <row r="272" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B272" s="80"/>
-      <c r="C272" s="86"/>
-      <c r="D272" s="87"/>
-      <c r="E272" s="87"/>
-      <c r="F272" s="87"/>
-      <c r="G272" s="87"/>
-      <c r="H272" s="88"/>
-      <c r="I272" s="87"/>
-      <c r="J272" s="87"/>
+        <v>497</v>
+      </c>
+      <c r="B272" s="78"/>
+      <c r="C272" s="83"/>
+      <c r="D272" s="84"/>
+      <c r="E272" s="84"/>
+      <c r="F272" s="84"/>
+      <c r="G272" s="84"/>
+      <c r="H272" s="85"/>
+      <c r="I272" s="84"/>
+      <c r="J272" s="84"/>
       <c r="K272" s="50"/>
       <c r="L272" s="50"/>
       <c r="M272" s="26"/>
     </row>
     <row r="273" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B273" s="79" t="s">
         <v>499</v>
       </c>
-      <c r="B273" s="81" t="s">
+      <c r="C273" s="19" t="s">
         <v>500</v>
-      </c>
-      <c r="C273" s="19" t="s">
-        <v>501</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="5"/>
@@ -8524,13 +9915,13 @@
     </row>
     <row r="274" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B274" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C274" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="5"/>
@@ -8561,17 +9952,17 @@
     </row>
     <row r="276" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B276" s="80"/>
-      <c r="C276" s="86"/>
-      <c r="D276" s="87"/>
-      <c r="E276" s="87"/>
-      <c r="F276" s="87"/>
-      <c r="G276" s="87"/>
-      <c r="H276" s="88"/>
-      <c r="I276" s="87"/>
-      <c r="J276" s="98" t="s">
+        <v>502</v>
+      </c>
+      <c r="B276" s="78"/>
+      <c r="C276" s="83"/>
+      <c r="D276" s="84"/>
+      <c r="E276" s="84"/>
+      <c r="F276" s="84"/>
+      <c r="G276" s="84"/>
+      <c r="H276" s="85"/>
+      <c r="I276" s="84"/>
+      <c r="J276" s="86" t="s">
         <v>41</v>
       </c>
       <c r="K276" s="50"/>
@@ -8580,13 +9971,13 @@
     </row>
     <row r="277" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B277" s="79" t="s">
         <v>504</v>
       </c>
-      <c r="B277" s="81" t="s">
+      <c r="C277" s="19" t="s">
         <v>505</v>
-      </c>
-      <c r="C277" s="19" t="s">
-        <v>506</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="5"/>
@@ -8603,10 +9994,10 @@
     </row>
     <row r="278" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B278" s="16" t="s">
         <v>507</v>
-      </c>
-      <c r="B278" s="16" t="s">
-        <v>508</v>
       </c>
       <c r="C278" s="7"/>
       <c r="D278" s="11"/>
@@ -8624,10 +10015,10 @@
     </row>
     <row r="279" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B279" s="16" t="s">
         <v>509</v>
-      </c>
-      <c r="B279" s="16" t="s">
-        <v>510</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="11"/>
@@ -8657,20 +10048,20 @@
       <c r="L280" s="11"/>
       <c r="M280" s="26"/>
     </row>
-    <row r="281" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B281" s="78"/>
+      <c r="C281" s="83"/>
+      <c r="D281" s="84"/>
+      <c r="E281" s="84"/>
+      <c r="F281" s="84"/>
+      <c r="G281" s="84"/>
+      <c r="H281" s="85"/>
+      <c r="I281" s="84"/>
+      <c r="J281" s="86" t="s">
         <v>511</v>
-      </c>
-      <c r="B281" s="80"/>
-      <c r="C281" s="86"/>
-      <c r="D281" s="87"/>
-      <c r="E281" s="87"/>
-      <c r="F281" s="87"/>
-      <c r="G281" s="87"/>
-      <c r="H281" s="88"/>
-      <c r="I281" s="87"/>
-      <c r="J281" s="98" t="s">
-        <v>583</v>
       </c>
       <c r="K281" s="50"/>
       <c r="L281" s="50"/>
@@ -8680,7 +10071,7 @@
       <c r="A282" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="B282" s="81" t="s">
+      <c r="B282" s="79" t="s">
         <v>513</v>
       </c>
       <c r="C282" s="19" t="s">
@@ -8704,7 +10095,7 @@
         <v>515</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>516</v>
@@ -8763,15 +10154,15 @@
       <c r="A286" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B286" s="80"/>
-      <c r="C286" s="86"/>
-      <c r="D286" s="87"/>
-      <c r="E286" s="87"/>
-      <c r="F286" s="87"/>
-      <c r="G286" s="87"/>
-      <c r="H286" s="88"/>
-      <c r="I286" s="87"/>
-      <c r="J286" s="98" t="s">
+      <c r="B286" s="78"/>
+      <c r="C286" s="83"/>
+      <c r="D286" s="84"/>
+      <c r="E286" s="84"/>
+      <c r="F286" s="84"/>
+      <c r="G286" s="84"/>
+      <c r="H286" s="85"/>
+      <c r="I286" s="84"/>
+      <c r="J286" s="86" t="s">
         <v>41</v>
       </c>
       <c r="K286" s="50"/>
@@ -8782,11 +10173,11 @@
       <c r="A287" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B287" s="81" t="s">
+      <c r="B287" s="79" t="s">
         <v>522</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="5"/>
@@ -8794,14 +10185,10 @@
       <c r="G287" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H287" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H287" s="11"/>
       <c r="I287" s="11"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="11" t="s">
-        <v>392</v>
-      </c>
+      <c r="K287" s="11"/>
       <c r="L287" s="11"/>
       <c r="M287" s="26"/>
     </row>
@@ -8813,7 +10200,7 @@
         <v>524</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="5"/>
@@ -8821,75 +10208,69 @@
       <c r="G288" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H288" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H288" s="11"/>
       <c r="I288" s="11"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="11" t="s">
-        <v>525</v>
-      </c>
+      <c r="K288" s="11"/>
       <c r="L288" s="11"/>
       <c r="M288" s="26"/>
     </row>
     <row r="289" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B289" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="B289" s="16" t="s">
+      <c r="C289" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="C289" s="7"/>
       <c r="D289" s="11"/>
       <c r="E289" s="5"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H289" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H289" s="11"/>
       <c r="I289" s="11"/>
       <c r="J289" s="11"/>
-      <c r="K289" s="11" t="s">
-        <v>528</v>
-      </c>
+      <c r="K289" s="11"/>
       <c r="L289" s="11"/>
       <c r="M289" s="26"/>
     </row>
     <row r="290" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B290" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="B290" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="C290" s="7"/>
+      <c r="C290" s="7" t="s">
+        <v>530</v>
+      </c>
       <c r="D290" s="11"/>
       <c r="E290" s="5"/>
       <c r="F290" s="11"/>
       <c r="G290" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H290" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H290" s="11"/>
       <c r="I290" s="11"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="11" t="s">
-        <v>525</v>
-      </c>
+      <c r="K290" s="11"/>
       <c r="L290" s="11"/>
       <c r="M290" s="26"/>
     </row>
     <row r="291" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="C291" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>527</v>
+      </c>
       <c r="D291" s="11"/>
       <c r="E291" s="5"/>
       <c r="F291" s="11"/>
@@ -8905,12 +10286,14 @@
     </row>
     <row r="292" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="C292" s="7"/>
+        <v>534</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>535</v>
+      </c>
       <c r="D292" s="11"/>
       <c r="E292" s="5"/>
       <c r="F292" s="11"/>
@@ -8926,12 +10309,14 @@
     </row>
     <row r="293" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C293" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>538</v>
+      </c>
       <c r="D293" s="11"/>
       <c r="E293" s="5"/>
       <c r="F293" s="11"/>
@@ -8947,12 +10332,14 @@
     </row>
     <row r="294" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="C294" s="7"/>
+        <v>540</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>538</v>
+      </c>
       <c r="D294" s="11"/>
       <c r="E294" s="5"/>
       <c r="F294" s="11"/>
@@ -8968,12 +10355,14 @@
     </row>
     <row r="295" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="C295" s="7"/>
+        <v>542</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>527</v>
+      </c>
       <c r="D295" s="11"/>
       <c r="E295" s="5"/>
       <c r="F295" s="11"/>
@@ -8984,17 +10373,18 @@
       <c r="I295" s="11"/>
       <c r="J295" s="11"/>
       <c r="K295" s="11"/>
-      <c r="L295" s="11"/>
       <c r="M295" s="26"/>
     </row>
     <row r="296" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="C296" s="7"/>
+        <v>544</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>545</v>
+      </c>
       <c r="D296" s="11"/>
       <c r="E296" s="5"/>
       <c r="F296" s="11"/>
@@ -9010,12 +10400,14 @@
     </row>
     <row r="297" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="15" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="C297" s="7"/>
+        <v>547</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>548</v>
+      </c>
       <c r="D297" s="11"/>
       <c r="E297" s="5"/>
       <c r="F297" s="11"/>
@@ -9031,12 +10423,14 @@
     </row>
     <row r="298" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="C298" s="7"/>
+        <v>550</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="D298" s="11"/>
       <c r="E298" s="5"/>
       <c r="F298" s="11"/>
@@ -9052,12 +10446,14 @@
     </row>
     <row r="299" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="15" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="C299" s="7"/>
+        <v>553</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="D299" s="11"/>
       <c r="E299" s="5"/>
       <c r="F299" s="11"/>
@@ -9073,12 +10469,14 @@
     </row>
     <row r="300" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="C300" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>556</v>
+      </c>
       <c r="D300" s="11"/>
       <c r="E300" s="5"/>
       <c r="F300" s="11"/>
@@ -9094,12 +10492,14 @@
     </row>
     <row r="301" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="15" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="C301" s="7"/>
+        <v>558</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="D301" s="11"/>
       <c r="E301" s="5"/>
       <c r="F301" s="11"/>
@@ -9115,12 +10515,14 @@
     </row>
     <row r="302" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="15" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="C302" s="7"/>
+        <v>561</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>562</v>
+      </c>
       <c r="D302" s="11"/>
       <c r="E302" s="5"/>
       <c r="F302" s="11"/>
@@ -9136,12 +10538,14 @@
     </row>
     <row r="303" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="15" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="C303" s="7"/>
+        <v>564</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>565</v>
+      </c>
       <c r="D303" s="11"/>
       <c r="E303" s="5"/>
       <c r="F303" s="11"/>
@@ -9157,12 +10561,14 @@
     </row>
     <row r="304" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="C304" s="7"/>
+        <v>567</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>568</v>
+      </c>
       <c r="D304" s="11"/>
       <c r="E304" s="5"/>
       <c r="F304" s="11"/>
@@ -9177,27 +10583,26 @@
       <c r="M304" s="26"/>
     </row>
     <row r="305" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="15" t="s">
-        <v>558</v>
-      </c>
+      <c r="A305" s="7"/>
       <c r="B305" s="16" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C305" s="7"/>
       <c r="D305" s="11"/>
       <c r="E305" s="5"/>
       <c r="F305" s="11"/>
-      <c r="G305" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="G305" s="11"/>
       <c r="H305" s="11"/>
       <c r="I305" s="11"/>
       <c r="J305" s="11"/>
       <c r="K305" s="11"/>
-      <c r="L305" s="11"/>
+      <c r="L305" s="11" t="s">
+        <v>570</v>
+      </c>
       <c r="M305" s="26"/>
     </row>
     <row r="306" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="19"/>
       <c r="B306" s="16"/>
       <c r="C306" s="7"/>
       <c r="D306" s="11"/>
@@ -9212,31 +10617,33 @@
       <c r="M306" s="26"/>
     </row>
     <row r="307" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B307" s="80"/>
-      <c r="C307" s="86"/>
-      <c r="D307" s="87"/>
-      <c r="E307" s="87"/>
-      <c r="F307" s="87"/>
-      <c r="G307" s="87"/>
-      <c r="H307" s="88"/>
-      <c r="I307" s="87"/>
-      <c r="J307" s="87"/>
-      <c r="K307" s="50"/>
-      <c r="L307" s="50"/>
+      <c r="A307" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B307" s="51"/>
+      <c r="C307" s="51"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
+      <c r="H307" s="64"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
       <c r="M307" s="26"/>
     </row>
     <row r="308" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="B308" s="81" t="s">
-        <v>561</v>
+        <v>572</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>573</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D308" s="11"/>
       <c r="E308" s="5"/>
@@ -9253,16 +10660,20 @@
     </row>
     <row r="309" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="B309" s="89" t="s">
-        <v>564</v>
-      </c>
-      <c r="C309" s="19"/>
+        <v>575</v>
+      </c>
+      <c r="B309" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C309" s="19" t="s">
+        <v>577</v>
+      </c>
       <c r="D309" s="11"/>
       <c r="E309" s="5"/>
       <c r="F309" s="11"/>
-      <c r="G309" s="11"/>
+      <c r="G309" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="H309" s="11"/>
       <c r="I309" s="11"/>
       <c r="J309" s="11"/>
@@ -9286,48 +10697,50 @@
       <c r="M310" s="26"/>
     </row>
     <row r="311" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="B311" s="92"/>
-      <c r="C311" s="84"/>
-      <c r="D311" s="85"/>
-      <c r="E311" s="85"/>
-      <c r="F311" s="85"/>
-      <c r="G311" s="85"/>
-      <c r="H311" s="85"/>
-      <c r="I311" s="85"/>
-      <c r="J311" s="85"/>
+      <c r="A311" s="107" t="s">
+        <v>578</v>
+      </c>
+      <c r="B311" s="108"/>
+      <c r="C311" s="81"/>
+      <c r="D311" s="82"/>
+      <c r="E311" s="82"/>
+      <c r="F311" s="82"/>
+      <c r="G311" s="82"/>
+      <c r="H311" s="82"/>
+      <c r="I311" s="82"/>
+      <c r="J311" s="82"/>
       <c r="K311" s="13"/>
       <c r="L311" s="13"/>
       <c r="M311" s="26"/>
     </row>
     <row r="312" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B312" s="80"/>
+        <v>579</v>
+      </c>
+      <c r="B312" s="78"/>
       <c r="C312" s="51"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
-      <c r="H312" s="65"/>
+      <c r="H312" s="64"/>
       <c r="I312" s="4"/>
-      <c r="J312" s="4"/>
+      <c r="J312" s="86" t="s">
+        <v>41</v>
+      </c>
       <c r="K312" s="50"/>
       <c r="L312" s="50"/>
       <c r="M312" s="26"/>
     </row>
     <row r="313" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="B313" s="81" t="s">
-        <v>568</v>
+        <v>580</v>
+      </c>
+      <c r="B313" s="79" t="s">
+        <v>581</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D313" s="11" t="s">
         <v>33</v>
@@ -9340,19 +10753,19 @@
       <c r="H313" s="11"/>
       <c r="I313" s="11"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="59"/>
+      <c r="K313" s="58"/>
       <c r="L313" s="14"/>
       <c r="M313" s="26"/>
     </row>
     <row r="314" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="B314" s="81" t="s">
+        <v>582</v>
+      </c>
+      <c r="B314" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="C314" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="11"/>
@@ -9363,19 +10776,19 @@
       <c r="H314" s="11"/>
       <c r="I314" s="11"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="59"/>
+      <c r="K314" s="58"/>
       <c r="L314" s="14"/>
       <c r="M314" s="26"/>
     </row>
     <row r="315" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="B315" s="82" t="s">
-        <v>488</v>
+        <v>583</v>
+      </c>
+      <c r="B315" s="80" t="s">
+        <v>487</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
@@ -9386,191 +10799,1350 @@
       <c r="H315" s="11"/>
       <c r="I315" s="11"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="59"/>
+      <c r="K315" s="58"/>
       <c r="L315" s="14"/>
       <c r="M315" s="26"/>
     </row>
     <row r="316" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="B316" s="82" t="s">
-        <v>491</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-      <c r="F316" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G316" s="11"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="11"/>
-      <c r="J316" s="11"/>
-      <c r="K316" s="59"/>
-      <c r="L316" s="14"/>
+      <c r="A316" s="88" t="s">
+        <v>585</v>
+      </c>
+      <c r="B316" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="C316" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="D316" s="91"/>
+      <c r="E316" s="91"/>
+      <c r="F316" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G316" s="91"/>
+      <c r="H316" s="91"/>
+      <c r="I316" s="91"/>
+      <c r="J316" s="91"/>
+      <c r="K316" s="57"/>
+      <c r="L316" s="92"/>
       <c r="M316" s="26"/>
     </row>
     <row r="317" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B317" s="82" t="s">
-        <v>494</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>495</v>
-      </c>
+      <c r="A317" s="19"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="7"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
-      <c r="F317" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="F317" s="11"/>
       <c r="G317" s="11"/>
       <c r="H317" s="11"/>
       <c r="I317" s="11"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="59"/>
-      <c r="L317" s="14"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="11"/>
       <c r="M317" s="26"/>
     </row>
     <row r="318" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="18"/>
-      <c r="B318" s="79"/>
-      <c r="C318" s="7"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
-      <c r="F318" s="11"/>
-      <c r="G318" s="11"/>
-      <c r="H318" s="11"/>
-      <c r="I318" s="11"/>
-      <c r="J318" s="11"/>
-      <c r="K318" s="59"/>
-      <c r="L318" s="14"/>
+      <c r="A318" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B318" s="51"/>
+      <c r="C318" s="51"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="H318" s="64"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K318" s="4"/>
+      <c r="L318" s="4"/>
       <c r="M318" s="26"/>
     </row>
     <row r="319" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B319" s="80"/>
-      <c r="C319" s="51"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-      <c r="H319" s="65"/>
-      <c r="I319" s="4"/>
-      <c r="J319" s="4"/>
-      <c r="K319" s="50"/>
-      <c r="L319" s="50"/>
+      <c r="A319" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E319" s="5"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="11"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="11"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="11"/>
+      <c r="L319" s="11"/>
       <c r="M319" s="26"/>
     </row>
     <row r="320" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B320" s="81" t="s">
-        <v>577</v>
-      </c>
-      <c r="C320" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E320" s="5"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="16"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
       <c r="H320" s="5"/>
       <c r="I320" s="11"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="59"/>
-      <c r="L320" s="14"/>
+      <c r="K320" s="11"/>
+      <c r="L320" s="11"/>
       <c r="M320" s="26"/>
     </row>
     <row r="321" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="81"/>
-      <c r="C321" s="16"/>
-      <c r="D321" s="11"/>
-      <c r="E321" s="11"/>
-      <c r="F321" s="11"/>
-      <c r="G321" s="11"/>
-      <c r="H321" s="5"/>
-      <c r="I321" s="11"/>
-      <c r="J321" s="11"/>
-      <c r="K321" s="59"/>
-      <c r="L321" s="14"/>
+      <c r="A321" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B321" s="51"/>
+      <c r="C321" s="51"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="H321" s="64"/>
+      <c r="I321" s="4"/>
+      <c r="J321" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K321" s="4"/>
+      <c r="L321" s="4"/>
       <c r="M321" s="26"/>
     </row>
     <row r="322" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B322" s="80"/>
-      <c r="C322" s="51"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="65"/>
-      <c r="I322" s="4"/>
-      <c r="J322" s="4"/>
-      <c r="K322" s="50"/>
-      <c r="L322" s="50"/>
+      <c r="A322" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="D322" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E322" s="5"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="11"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11"/>
       <c r="M322" s="26"/>
     </row>
-    <row r="323" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="B323" s="81" t="s">
-        <v>581</v>
-      </c>
-      <c r="C323" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="D323" s="11" t="s">
-        <v>33</v>
-      </c>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A323" s="19"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="5"/>
       <c r="E323" s="5"/>
-      <c r="F323" s="11"/>
-      <c r="G323" s="11"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
       <c r="H323" s="5"/>
-      <c r="I323" s="11"/>
-      <c r="J323" s="11"/>
-      <c r="K323" s="59"/>
-      <c r="L323" s="14"/>
-      <c r="M323" s="26"/>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A324" s="19"/>
-      <c r="B324" s="83"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
-      <c r="F324" s="5"/>
-      <c r="G324" s="5"/>
-      <c r="H324" s="5"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="19"/>
-      <c r="K324" s="57"/>
-      <c r="L324" s="19"/>
+      <c r="I323" s="19"/>
+      <c r="J323" s="19"/>
+      <c r="K323" s="19"/>
+      <c r="L323" s="19"/>
+    </row>
+    <row r="324" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="B324" s="106"/>
+      <c r="C324" s="99"/>
+      <c r="D324" s="93"/>
+      <c r="E324" s="93"/>
+      <c r="F324" s="93"/>
+      <c r="G324" s="93"/>
+      <c r="H324" s="93"/>
+      <c r="I324" s="93"/>
+      <c r="J324" s="93"/>
+      <c r="K324" s="93"/>
+      <c r="L324" s="93"/>
+      <c r="M324" s="26"/>
+    </row>
+    <row r="325" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B325" s="51"/>
+      <c r="C325" s="51"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+      <c r="H325" s="64"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K325" s="4"/>
+      <c r="L325" s="4"/>
+      <c r="M325" s="26"/>
+    </row>
+    <row r="326" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D326" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E326" s="5"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
+      <c r="M326" s="26"/>
+    </row>
+    <row r="327" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
+      <c r="M327" s="26"/>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="19"/>
+      <c r="J328" s="19"/>
+      <c r="K328" s="19"/>
+      <c r="L328" s="19"/>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A329" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="D329" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="19"/>
+      <c r="J329" s="19"/>
+      <c r="K329" s="19"/>
+      <c r="L329" s="19"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A330" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="19"/>
+      <c r="J330" s="19"/>
+      <c r="K330" s="19"/>
+      <c r="L330" s="19"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="19"/>
+      <c r="J331" s="19"/>
+      <c r="K331" s="19"/>
+      <c r="L331" s="19"/>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="19"/>
+      <c r="J332" s="19"/>
+      <c r="K332" s="19"/>
+      <c r="L332" s="19"/>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A333" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="D333" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="19"/>
+      <c r="J333" s="19"/>
+      <c r="K333" s="19"/>
+      <c r="L333" s="19"/>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A334" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B334" s="87" t="s">
+        <v>619</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="D334" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="19"/>
+      <c r="J334" s="19"/>
+      <c r="K334" s="19"/>
+      <c r="L334" s="19"/>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A335" s="19"/>
+      <c r="B335" s="19"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="19"/>
+      <c r="K335" s="19"/>
+      <c r="L335" s="19"/>
+    </row>
+    <row r="336" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B336" s="51"/>
+      <c r="C336" s="51"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="H336" s="64"/>
+      <c r="I336" s="4"/>
+      <c r="J336" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K336" s="4"/>
+      <c r="L336" s="4"/>
+      <c r="M336" s="26"/>
+    </row>
+    <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D337" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="11"/>
+      <c r="I337" s="11"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="11"/>
+      <c r="M337" s="26"/>
+    </row>
+    <row r="338" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D338" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="11"/>
+      <c r="I338" s="11"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="11"/>
+      <c r="L338" s="11"/>
+      <c r="M338" s="26"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="D339" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="19"/>
+      <c r="J339" s="19"/>
+      <c r="K339" s="19"/>
+      <c r="L339" s="19"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B340" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="C340" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="D340" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="19"/>
+      <c r="J340" s="19"/>
+      <c r="K340" s="19"/>
+      <c r="L340" s="19"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C341" s="19"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="19"/>
+      <c r="J341" s="19"/>
+      <c r="K341" s="19"/>
+      <c r="L341" s="19"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B342" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="C342" s="19"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="19"/>
+      <c r="J342" s="19"/>
+      <c r="K342" s="19"/>
+      <c r="L342" s="19"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A343" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B343" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C343" s="19"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="19"/>
+      <c r="J343" s="19"/>
+      <c r="K343" s="19"/>
+      <c r="L343" s="19"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A344" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C344" s="19"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="19"/>
+      <c r="J344" s="19"/>
+      <c r="K344" s="19"/>
+      <c r="L344" s="19"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A345" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="B345" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C345" s="19"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="19"/>
+      <c r="J345" s="19"/>
+      <c r="K345" s="19"/>
+      <c r="L345" s="19"/>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A346" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="B346" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="C346" s="19"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="19"/>
+      <c r="K346" s="19"/>
+      <c r="L346" s="19"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A347" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B347" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C347" s="19"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="19"/>
+      <c r="K347" s="19"/>
+      <c r="L347" s="19"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A348" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B348" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="C348" s="19"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="19"/>
+      <c r="J348" s="19"/>
+      <c r="K348" s="19"/>
+      <c r="L348" s="19"/>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A349" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="B349" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="C349" s="19"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="19"/>
+      <c r="J349" s="19"/>
+      <c r="K349" s="19"/>
+      <c r="L349" s="19"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A350" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C350" s="19"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="19"/>
+      <c r="J350" s="19"/>
+      <c r="K350" s="19"/>
+      <c r="L350" s="19"/>
+    </row>
+    <row r="351" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B351" s="87" t="s">
+        <v>651</v>
+      </c>
+      <c r="C351" s="19"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="19"/>
+      <c r="J351" s="19"/>
+      <c r="K351" s="19"/>
+      <c r="L351" s="19"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A352" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B352" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="19"/>
+      <c r="J352" s="19"/>
+      <c r="K352" s="19"/>
+      <c r="L352" s="19"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A353" s="19"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="19"/>
+      <c r="J353" s="19"/>
+      <c r="K353" s="19"/>
+      <c r="L353" s="19"/>
+    </row>
+    <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B354" s="51"/>
+      <c r="C354" s="51"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
+      <c r="H354" s="64"/>
+      <c r="I354" s="4"/>
+      <c r="J354" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K354" s="4"/>
+      <c r="L354" s="4"/>
+      <c r="M354" s="26"/>
+    </row>
+    <row r="355" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E355" s="11"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
+      <c r="L355" s="11"/>
+      <c r="M355" s="26"/>
+    </row>
+    <row r="356" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="19"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="7"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
+      <c r="M356" s="26"/>
+    </row>
+    <row r="357" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="94" t="s">
+        <v>659</v>
+      </c>
+      <c r="B357" s="95"/>
+      <c r="C357" s="95"/>
+      <c r="D357" s="96"/>
+      <c r="E357" s="96"/>
+      <c r="F357" s="96"/>
+      <c r="G357" s="96"/>
+      <c r="H357" s="97"/>
+      <c r="I357" s="96"/>
+      <c r="J357" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="K357" s="96"/>
+      <c r="L357" s="96"/>
+      <c r="M357" s="26"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A358" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="D358" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="19"/>
+      <c r="J358" s="19"/>
+      <c r="K358" s="19"/>
+      <c r="L358" s="19"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A359" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C359" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D359" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="19"/>
+      <c r="J359" s="19"/>
+      <c r="K359" s="19"/>
+      <c r="L359" s="19"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B360" s="19"/>
+      <c r="C360" s="19"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="19"/>
+      <c r="J360" s="19"/>
+      <c r="K360" s="19"/>
+      <c r="L360" s="19"/>
+    </row>
+    <row r="361" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="94" t="s">
+        <v>663</v>
+      </c>
+      <c r="B361" s="95"/>
+      <c r="C361" s="95"/>
+      <c r="D361" s="96"/>
+      <c r="E361" s="96"/>
+      <c r="F361" s="96"/>
+      <c r="G361" s="96"/>
+      <c r="H361" s="97"/>
+      <c r="I361" s="96"/>
+      <c r="J361" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="K361" s="96"/>
+      <c r="L361" s="96"/>
+      <c r="M361" s="26"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A362" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C362" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="19"/>
+      <c r="J362" s="19"/>
+      <c r="K362" s="19"/>
+      <c r="L362" s="19"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A363" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="B363" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C363" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="19"/>
+      <c r="J363" s="19"/>
+      <c r="K363" s="19"/>
+      <c r="L363" s="19"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A364" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B364" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="C364" s="19"/>
+      <c r="D364" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E364" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="19"/>
+      <c r="J364" s="19"/>
+      <c r="K364" s="19"/>
+      <c r="L364" s="19"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A365" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B365" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C365" s="19"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="19"/>
+      <c r="J365" s="19"/>
+      <c r="K365" s="19"/>
+      <c r="L365" s="19"/>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A366" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B366" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C366" s="19"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="19"/>
+      <c r="J366" s="19"/>
+      <c r="K366" s="19"/>
+      <c r="L366" s="19"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A367" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B367" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C367" s="19"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="19"/>
+      <c r="J367" s="19"/>
+      <c r="K367" s="19"/>
+      <c r="L367" s="19"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A368" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B368" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C368" s="19"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="19"/>
+      <c r="J368" s="19"/>
+      <c r="K368" s="19"/>
+      <c r="L368" s="19"/>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A369" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="B369" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="C369" s="19"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I369" s="19"/>
+      <c r="J369" s="19"/>
+      <c r="K369" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="L369" s="19"/>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A370" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B370" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C370" s="19"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="19"/>
+      <c r="J370" s="19"/>
+      <c r="K370" s="19"/>
+      <c r="L370" s="19"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A371" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="C371" s="19"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="19"/>
+      <c r="J371" s="19"/>
+      <c r="K371" s="19"/>
+      <c r="L371" s="19"/>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A372" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B372" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C372" s="19"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="19"/>
+      <c r="J372" s="19"/>
+      <c r="K372" s="19"/>
+      <c r="L372" s="19"/>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A373" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B373" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="C373" s="19"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="19"/>
+      <c r="J373" s="19"/>
+      <c r="K373" s="19"/>
+      <c r="L373" s="19"/>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A374" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B374" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C374" s="19"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="19"/>
+      <c r="K374" s="19"/>
+      <c r="L374" s="19"/>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A375" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="B375" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C375" s="19"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="19"/>
+      <c r="J375" s="19"/>
+      <c r="K375" s="19"/>
+      <c r="L375" s="19"/>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A376" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B376" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C376" s="19"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="19"/>
+      <c r="K376" s="19"/>
+      <c r="L376" s="19"/>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A377" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B377" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C377" s="19"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="19"/>
+      <c r="J377" s="19"/>
+      <c r="K377" s="19"/>
+      <c r="L377" s="19"/>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A378" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B378" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C378" s="19"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="19"/>
+      <c r="J378" s="19"/>
+      <c r="K378" s="19"/>
+      <c r="L378" s="19"/>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C379" s="19"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="19"/>
+      <c r="K379" s="19"/>
+      <c r="L379" s="19"/>
+    </row>
+    <row r="380" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="94" t="s">
+        <v>690</v>
+      </c>
+      <c r="B380" s="95"/>
+      <c r="C380" s="95"/>
+      <c r="D380" s="96"/>
+      <c r="E380" s="96"/>
+      <c r="F380" s="96"/>
+      <c r="G380" s="96"/>
+      <c r="H380" s="97"/>
+      <c r="I380" s="96"/>
+      <c r="J380" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="K380" s="96"/>
+      <c r="L380" s="96"/>
+      <c r="M380" s="26"/>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A381" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="B381" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C381" s="19"/>
+      <c r="D381" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="19"/>
+      <c r="J381" s="19"/>
+      <c r="K381" s="19"/>
+      <c r="L381" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A311:B311"/>
+  <mergeCells count="8">
     <mergeCell ref="A271:B271"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="M5:T5"/>
+    <mergeCell ref="A324:B324"/>
     <mergeCell ref="M4:T4"/>
     <mergeCell ref="M3:T3"/>
+    <mergeCell ref="A311:B311"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>